--- a/capiq_data/in_process_data/IQ130705.xlsx
+++ b/capiq_data/in_process_data/IQ130705.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790A554F-739A-4BB3-8AC8-4FDDFAB77DC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D01051B-D119-487E-A938-DC6265B246DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"ed57f91b-ccbd-4abe-a2ce-04324cce6231"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"cfa41652-18ee-423d-a0b3-8d3e385c55e2"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,123 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +850,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>36.694000000000003</v>
+        <v>3.8969999999999998</v>
       </c>
       <c r="D2">
-        <v>382.30399999999997</v>
+        <v>257.779</v>
       </c>
       <c r="E2">
-        <v>364.81799999999998</v>
+        <v>340.39600000000002</v>
       </c>
       <c r="F2">
-        <v>217.345</v>
+        <v>132.78299999999999</v>
       </c>
       <c r="G2">
-        <v>621.10199999999998</v>
+        <v>456.63799999999998</v>
       </c>
       <c r="H2">
-        <v>1285.6579999999999</v>
+        <v>929.49300000000005</v>
       </c>
       <c r="I2">
-        <v>17.791</v>
+        <v>152.35</v>
       </c>
       <c r="J2">
-        <v>186.06700000000001</v>
+        <v>311.90899999999999</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +889,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>811.15200000000004</v>
+        <v>533.19000000000005</v>
       </c>
       <c r="O2">
-        <v>1098.6020000000001</v>
+        <v>859.90800000000002</v>
       </c>
       <c r="P2">
-        <v>226.22300000000001</v>
+        <v>341.90899999999999</v>
       </c>
       <c r="Q2">
-        <v>-28.231000000000002</v>
+        <v>-37.378</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>4461</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>187.05600000000001</v>
+        <v>69.584999999999994</v>
       </c>
       <c r="U2">
-        <v>120.181</v>
+        <v>24.32</v>
       </c>
       <c r="V2">
-        <v>79.123999999999995</v>
+        <v>-47.664999999999999</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-98.034999999999997</v>
+        <v>22.638999999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>8.6039999999999992</v>
       </c>
       <c r="AA2">
-        <v>36.694000000000003</v>
+        <v>3.8969999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>29.190999999999999</v>
+        <v>-53.58</v>
       </c>
       <c r="D3">
-        <v>329.56700000000001</v>
+        <v>227.27600000000001</v>
       </c>
       <c r="E3">
-        <v>345.03500000000003</v>
+        <v>312.55500000000001</v>
       </c>
       <c r="F3">
-        <v>196.251</v>
+        <v>115.62</v>
       </c>
       <c r="G3">
-        <v>616.24</v>
+        <v>441.75099999999998</v>
       </c>
       <c r="H3">
-        <v>1275.374</v>
+        <v>836.09199999999998</v>
       </c>
       <c r="I3">
-        <v>140.14699999999999</v>
+        <v>110.625</v>
       </c>
       <c r="J3">
-        <v>172.5</v>
+        <v>316.58699999999999</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>784.21799999999996</v>
+        <v>490.71600000000001</v>
       </c>
       <c r="O3">
-        <v>1065.3440000000001</v>
+        <v>823.53099999999995</v>
       </c>
       <c r="P3">
-        <v>258.53699999999998</v>
+        <v>336.58699999999999</v>
       </c>
       <c r="Q3">
-        <v>-11.178000000000001</v>
+        <v>7.12</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>210.03</v>
+        <v>12.561</v>
       </c>
       <c r="U3">
-        <v>109.003</v>
+        <v>31.44</v>
       </c>
       <c r="V3">
-        <v>-24.663</v>
+        <v>26.399000000000001</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>17.786000000000001</v>
+        <v>-5.64</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>2.1909999999999998</v>
       </c>
       <c r="AA3">
-        <v>29.190999999999999</v>
+        <v>-53.58</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>32.222999999999999</v>
+        <v>-8.4540000000000006</v>
       </c>
       <c r="D4">
-        <v>365.54300000000001</v>
+        <v>250.07499999999999</v>
       </c>
       <c r="E4">
-        <v>360.56400000000002</v>
+        <v>279.86200000000002</v>
       </c>
       <c r="F4">
-        <v>213.08199999999999</v>
+        <v>134.86500000000001</v>
       </c>
       <c r="G4">
-        <v>625.60900000000004</v>
+        <v>409.28100000000001</v>
       </c>
       <c r="H4">
-        <v>1295.972</v>
+        <v>793.83900000000006</v>
       </c>
       <c r="I4">
-        <v>165.43899999999999</v>
+        <v>124.768</v>
       </c>
       <c r="J4">
-        <v>165</v>
+        <v>321.38099999999997</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1055,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>799.36699999999996</v>
+        <v>461.815</v>
       </c>
       <c r="O4">
-        <v>1080.153</v>
+        <v>799.07299999999998</v>
       </c>
       <c r="P4">
-        <v>226.54400000000001</v>
+        <v>326.38099999999997</v>
       </c>
       <c r="Q4">
-        <v>16.338000000000001</v>
+        <v>7.851</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>215.81899999999999</v>
+        <v>-5.234</v>
       </c>
       <c r="U4">
-        <v>125.34099999999999</v>
+        <v>39.290999999999997</v>
       </c>
       <c r="V4">
-        <v>88.575999999999993</v>
+        <v>39.951000000000001</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-67.513999999999996</v>
+        <v>-16.231000000000002</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2.681</v>
       </c>
       <c r="AA4">
-        <v>32.222999999999999</v>
+        <v>-8.4540000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>30.463999999999999</v>
+        <v>-8.0660000000000007</v>
       </c>
       <c r="D5">
-        <v>345.78399999999999</v>
+        <v>227.75399999999999</v>
       </c>
       <c r="E5">
-        <v>349.28699999999998</v>
+        <v>300.30599999999998</v>
       </c>
       <c r="F5">
-        <v>203.08799999999999</v>
+        <v>129.14500000000001</v>
       </c>
       <c r="G5">
-        <v>633.68600000000004</v>
+        <v>446.37400000000002</v>
       </c>
       <c r="H5">
-        <v>1304.431</v>
+        <v>839.00199999999995</v>
       </c>
       <c r="I5">
-        <v>182.72499999999999</v>
+        <v>14.509</v>
       </c>
       <c r="J5">
-        <v>167.77099999999999</v>
+        <v>326.2</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,78 +1138,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>834.49199999999996</v>
+        <v>504.01400000000001</v>
       </c>
       <c r="O5">
-        <v>1110.364</v>
+        <v>873.52</v>
       </c>
       <c r="P5">
-        <v>220.93299999999999</v>
+        <v>341.2</v>
       </c>
       <c r="Q5">
-        <v>31.562000000000001</v>
+        <v>-2.1629999999999998</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>4900</v>
+        <v>4281</v>
       </c>
       <c r="T5">
-        <v>194.06700000000001</v>
+        <v>-34.518000000000001</v>
       </c>
       <c r="U5">
-        <v>156.90299999999999</v>
+        <v>37.128</v>
       </c>
       <c r="V5">
-        <v>112.55200000000001</v>
+        <v>20.58</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-61.412999999999997</v>
+        <v>-19.63</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="AA5">
-        <v>30.463999999999999</v>
+        <v>-8.0660000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>45.024000000000001</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>427.69400000000002</v>
+        <v>249.39500000000001</v>
       </c>
       <c r="E6">
-        <v>421.03300000000002</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>247.41200000000001</v>
+        <v>133.566</v>
       </c>
       <c r="G6">
-        <v>705.78499999999997</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1379.8720000000001</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>27.573</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>159.89099999999999</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1221,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>921.13699999999994</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1198.088</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>209.89099999999999</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>-14.164</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>4975</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>181.78399999999999</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>142.739</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>79.100999999999999</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-75.418000000000006</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1260,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>45.024000000000001</v>
+        <v>19.042999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
-        <v>34.220999999999997</v>
+        <v>-4.3159999999999998</v>
       </c>
       <c r="D7">
-        <v>369.17099999999999</v>
+        <v>201.095</v>
       </c>
       <c r="E7">
-        <v>384.125</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>222.708</v>
+        <v>112.754</v>
       </c>
       <c r="G7">
-        <v>676.82</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1349.848</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>160.07</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>149.83799999999999</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,40 +1301,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>911.05200000000002</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1178.067</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>250.131</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>-3.754</v>
+        <v>51.348999999999997</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>5056</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>171.78100000000001</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>138.98500000000001</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>18.678999999999998</v>
+        <v>54.527999999999999</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-17.556000000000001</v>
+        <v>1.3089999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1343,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>34.220999999999997</v>
+        <v>-4.3159999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>41.484000000000002</v>
+        <v>18.254999999999999</v>
       </c>
       <c r="D8">
-        <v>397.48200000000003</v>
+        <v>236.15700000000001</v>
       </c>
       <c r="E8">
-        <v>389.41399999999999</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>236.23500000000001</v>
+        <v>130.11199999999999</v>
       </c>
       <c r="G8">
-        <v>686.35</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1380.115</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>178.52799999999999</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1387,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>908.35699999999997</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1165.124</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>200.08799999999999</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>11.545999999999999</v>
+        <v>31.108000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>214.99100000000001</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>150.53100000000001</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>80.772999999999996</v>
+        <v>57.383000000000003</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-41.552</v>
+        <v>-19.873999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1426,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>41.484000000000002</v>
+        <v>18.254999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>31.375</v>
+        <v>15.596</v>
       </c>
       <c r="D9">
-        <v>374.40600000000001</v>
+        <v>220.52699999999999</v>
       </c>
       <c r="E9">
-        <v>370.95100000000002</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>223.26300000000001</v>
+        <v>127.024</v>
       </c>
       <c r="G9">
-        <v>781.97799999999995</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1479.1479999999999</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>206.05</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1470,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>968.89300000000003</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1217.683</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>104.86</v>
+        <v>14.904999999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>261.46499999999997</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>255.39099999999999</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>109.29900000000001</v>
+        <v>32.762</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.73399999999999999</v>
+        <v>-10.792999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-1.508</v>
       </c>
       <c r="AA9">
-        <v>31.375</v>
+        <v>15.596</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>58.823</v>
+        <v>-14.417999999999999</v>
       </c>
       <c r="D10">
-        <v>474.74900000000002</v>
+        <v>229.81399999999999</v>
       </c>
       <c r="E10">
-        <v>463.96800000000002</v>
+        <v>283.06799999999998</v>
       </c>
       <c r="F10">
-        <v>274.53500000000003</v>
+        <v>121.214</v>
       </c>
       <c r="G10">
-        <v>927.46600000000001</v>
+        <v>441.94200000000001</v>
       </c>
       <c r="H10">
-        <v>1621.277</v>
+        <v>810.08</v>
       </c>
       <c r="I10">
-        <v>27.344000000000001</v>
+        <v>7.5759999999999996</v>
       </c>
       <c r="J10">
-        <v>125.017</v>
+        <v>351.53899999999999</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1553,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1070</v>
+        <v>440.55399999999997</v>
       </c>
       <c r="O10">
-        <v>1314.604</v>
+        <v>838.78099999999995</v>
       </c>
       <c r="P10">
-        <v>215.017</v>
+        <v>351.53899999999999</v>
       </c>
       <c r="Q10">
-        <v>44.460999999999999</v>
+        <v>-15.135999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>5468</v>
+        <v>3905</v>
       </c>
       <c r="T10">
-        <v>306.673</v>
+        <v>-28.701000000000001</v>
       </c>
       <c r="U10">
-        <v>299.85199999999998</v>
+        <v>109.657</v>
       </c>
       <c r="V10">
-        <v>71.061999999999998</v>
+        <v>1.153</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-14.196</v>
+        <v>-12.835000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1592,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>58.823</v>
+        <v>-14.417999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>36.674999999999997</v>
+        <v>-1.512</v>
       </c>
       <c r="D11">
-        <v>406.75400000000002</v>
+        <v>204.28200000000001</v>
       </c>
       <c r="E11">
-        <v>441.40499999999997</v>
+        <v>257.93</v>
       </c>
       <c r="F11">
-        <v>243.017</v>
+        <v>101.949</v>
       </c>
       <c r="G11">
-        <v>875.04</v>
+        <v>450.67399999999998</v>
       </c>
       <c r="H11">
-        <v>1567.395</v>
+        <v>810.90599999999995</v>
       </c>
       <c r="I11">
-        <v>180.876</v>
+        <v>140.81100000000001</v>
       </c>
       <c r="J11">
-        <v>156.58000000000001</v>
+        <v>356.80500000000001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1633,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>975.09199999999998</v>
+        <v>442.17200000000003</v>
       </c>
       <c r="O11">
-        <v>1248.2380000000001</v>
+        <v>845.45100000000002</v>
       </c>
       <c r="P11">
-        <v>214.08</v>
+        <v>356.80500000000001</v>
       </c>
       <c r="Q11">
-        <v>-30.789000000000001</v>
+        <v>25.774000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>5634</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>319.15699999999998</v>
+        <v>-34.545000000000002</v>
       </c>
       <c r="U11">
-        <v>269.06299999999999</v>
+        <v>135.43100000000001</v>
       </c>
       <c r="V11">
-        <v>19.693000000000001</v>
+        <v>33.725999999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-36.905999999999999</v>
+        <v>-4.7869999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1675,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>36.674999999999997</v>
+        <v>-1.512</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>46.514000000000003</v>
+        <v>12.853999999999999</v>
       </c>
       <c r="D12">
-        <v>446.04700000000003</v>
+        <v>213.31800000000001</v>
       </c>
       <c r="E12">
-        <v>432.01100000000002</v>
+        <v>226.08600000000001</v>
       </c>
       <c r="F12">
-        <v>268.14299999999997</v>
+        <v>109.878</v>
       </c>
       <c r="G12">
-        <v>923.35799999999995</v>
+        <v>435.892</v>
       </c>
       <c r="H12">
-        <v>1613.787</v>
+        <v>799.79899999999998</v>
       </c>
       <c r="I12">
-        <v>204.33</v>
+        <v>133.226</v>
       </c>
       <c r="J12">
-        <v>151.47499999999999</v>
+        <v>362.20100000000002</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1719,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1014.84</v>
+        <v>420.87099999999998</v>
       </c>
       <c r="O12">
-        <v>1285.0930000000001</v>
+        <v>831.62800000000004</v>
       </c>
       <c r="P12">
-        <v>212.72499999999999</v>
+        <v>362.20100000000002</v>
       </c>
       <c r="Q12">
-        <v>64.3</v>
+        <v>31.254000000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>5744</v>
+        <v>4508</v>
       </c>
       <c r="T12">
-        <v>328.69400000000002</v>
+        <v>-31.829000000000001</v>
       </c>
       <c r="U12">
-        <v>333.363</v>
+        <v>166.685</v>
       </c>
       <c r="V12">
-        <v>120.623</v>
+        <v>44.448</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-44.177999999999997</v>
+        <v>-16.361999999999998</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="AA12">
-        <v>46.514000000000003</v>
+        <v>12.853999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>38.194000000000003</v>
+        <v>5.4740000000000002</v>
       </c>
       <c r="D13">
-        <v>410.70499999999998</v>
+        <v>196.904</v>
       </c>
       <c r="E13">
-        <v>392.17399999999998</v>
+        <v>221.34700000000001</v>
       </c>
       <c r="F13">
-        <v>248.97</v>
+        <v>102.526</v>
       </c>
       <c r="G13">
-        <v>935.15499999999997</v>
+        <v>476.28</v>
       </c>
       <c r="H13">
-        <v>1628.3979999999999</v>
+        <v>837.35799999999995</v>
       </c>
       <c r="I13">
-        <v>224.821</v>
+        <v>134.55600000000001</v>
       </c>
       <c r="J13">
-        <v>147.291</v>
+        <v>367.625</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1802,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1043.9929999999999</v>
+        <v>436.23700000000002</v>
       </c>
       <c r="O13">
-        <v>1306.7629999999999</v>
+        <v>852.78899999999999</v>
       </c>
       <c r="P13">
-        <v>212.291</v>
+        <v>367.625</v>
       </c>
       <c r="Q13">
-        <v>41.158000000000001</v>
+        <v>40.252000000000002</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>5891</v>
+        <v>4508</v>
       </c>
       <c r="T13">
-        <v>321.63499999999999</v>
+        <v>-15.430999999999999</v>
       </c>
       <c r="U13">
-        <v>374.52100000000002</v>
+        <v>206.93700000000001</v>
       </c>
       <c r="V13">
-        <v>101.753</v>
+        <v>37.753999999999998</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-56.768999999999998</v>
+        <v>9.1549999999999994</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="AA13">
-        <v>38.194000000000003</v>
+        <v>5.4740000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>61.417999999999999</v>
+        <v>6.7729999999999997</v>
       </c>
       <c r="D14">
-        <v>520.70699999999999</v>
+        <v>243.94200000000001</v>
       </c>
       <c r="E14">
-        <v>490.923</v>
+        <v>266.12200000000001</v>
       </c>
       <c r="F14">
-        <v>310.59899999999999</v>
+        <v>133.42699999999999</v>
       </c>
       <c r="G14">
-        <v>1084.8820000000001</v>
+        <v>554.29999999999995</v>
       </c>
       <c r="H14">
-        <v>1783.5820000000001</v>
+        <v>918.73199999999997</v>
       </c>
       <c r="I14">
-        <v>17.670999999999999</v>
+        <v>8.7140000000000004</v>
       </c>
       <c r="J14">
-        <v>142.755</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1885,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1159.923</v>
+        <v>495.95600000000002</v>
       </c>
       <c r="O14">
-        <v>1422.2660000000001</v>
+        <v>543.94200000000001</v>
       </c>
       <c r="P14">
-        <v>211.505</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>49.469000000000001</v>
+        <v>23.024999999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>5997</v>
+        <v>3729</v>
       </c>
       <c r="T14">
-        <v>361.31599999999997</v>
+        <v>374.79</v>
       </c>
       <c r="U14">
-        <v>423.99</v>
+        <v>229.96199999999999</v>
       </c>
       <c r="V14">
-        <v>73.584999999999994</v>
+        <v>20.408999999999999</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-16.001999999999999</v>
+        <v>9.0329999999999995</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-0.45300000000000001</v>
       </c>
       <c r="AA14">
-        <v>61.417999999999999</v>
+        <v>6.7729999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>37.735999999999997</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="D15">
-        <v>446.702</v>
+        <v>208.667</v>
       </c>
       <c r="E15">
-        <v>496.99700000000001</v>
+        <v>235.69900000000001</v>
       </c>
       <c r="F15">
-        <v>275.88099999999997</v>
+        <v>113.191</v>
       </c>
       <c r="G15">
-        <v>945.66800000000001</v>
+        <v>550.02700000000004</v>
       </c>
       <c r="H15">
-        <v>1757.713</v>
+        <v>912.35199999999998</v>
       </c>
       <c r="I15">
-        <v>211.56100000000001</v>
+        <v>150.80199999999999</v>
       </c>
       <c r="J15">
-        <v>138.22</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1965,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-1.875</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1266.6210000000001</v>
+        <v>467.63900000000001</v>
       </c>
       <c r="O15">
-        <v>1520.99</v>
+        <v>519.02700000000004</v>
       </c>
       <c r="P15">
-        <v>360.72</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>-140.70599999999999</v>
+        <v>32.78</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>6136</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>236.72300000000001</v>
+        <v>393.32499999999999</v>
       </c>
       <c r="U15">
-        <v>283.28399999999999</v>
+        <v>262.74200000000002</v>
       </c>
       <c r="V15">
-        <v>16.47</v>
+        <v>24.695</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-32.276000000000003</v>
+        <v>12.27</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +2007,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>37.735999999999997</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>53.04</v>
+        <v>11.028</v>
       </c>
       <c r="D16">
-        <v>519.82000000000005</v>
+        <v>227.857</v>
       </c>
       <c r="E16">
-        <v>493.21600000000001</v>
+        <v>214.08600000000001</v>
       </c>
       <c r="F16">
-        <v>316.642</v>
+        <v>113.471</v>
       </c>
       <c r="G16">
-        <v>971.76900000000001</v>
+        <v>555.64800000000002</v>
       </c>
       <c r="H16">
-        <v>1796.808</v>
+        <v>915.23699999999997</v>
       </c>
       <c r="I16">
-        <v>251.41499999999999</v>
+        <v>144.14099999999999</v>
       </c>
       <c r="J16">
-        <v>133.62</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2051,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1345.548</v>
+        <v>439.25</v>
       </c>
       <c r="O16">
-        <v>1599.299</v>
+        <v>489.48899999999998</v>
       </c>
       <c r="P16">
-        <v>379.87</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>34.640999999999998</v>
+        <v>28.254999999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>6377</v>
+        <v>4508</v>
       </c>
       <c r="T16">
-        <v>197.50899999999999</v>
+        <v>425.74799999999999</v>
       </c>
       <c r="U16">
-        <v>317.92500000000001</v>
+        <v>290.99700000000001</v>
       </c>
       <c r="V16">
-        <v>136.28800000000001</v>
+        <v>16.611999999999998</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-85.832999999999998</v>
+        <v>19.469000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2090,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>53.04</v>
+        <v>11.028</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>33.845999999999997</v>
+        <v>0.16</v>
       </c>
       <c r="D17">
-        <v>470.94</v>
+        <v>201.88800000000001</v>
       </c>
       <c r="E17">
-        <v>449.923</v>
+        <v>215.58699999999999</v>
       </c>
       <c r="F17">
-        <v>282.88099999999997</v>
+        <v>101.69199999999999</v>
       </c>
       <c r="G17">
-        <v>959.23400000000004</v>
+        <v>430.89499999999998</v>
       </c>
       <c r="H17">
-        <v>1768.953</v>
+        <v>794.29</v>
       </c>
       <c r="I17">
-        <v>266.52600000000001</v>
+        <v>140.553</v>
       </c>
       <c r="J17">
-        <v>128.839</v>
+        <v>160</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2134,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1358.8720000000001</v>
+        <v>480.48200000000003</v>
       </c>
       <c r="O17">
-        <v>1616.43</v>
+        <v>690.94299999999998</v>
       </c>
       <c r="P17">
-        <v>373.839</v>
+        <v>200</v>
       </c>
       <c r="Q17">
-        <v>23.295000000000002</v>
+        <v>-134.35599999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>6590</v>
+        <v>4508</v>
       </c>
       <c r="T17">
-        <v>152.523</v>
+        <v>103.34699999999999</v>
       </c>
       <c r="U17">
-        <v>341.22</v>
+        <v>156.64099999999999</v>
       </c>
       <c r="V17">
-        <v>122.851</v>
+        <v>4.9669999999999996</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-78.376999999999995</v>
+        <v>-130.35</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2173,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>33.845999999999997</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>59.143999999999998</v>
+        <v>5.2370000000000001</v>
       </c>
       <c r="D18">
-        <v>583.97900000000004</v>
+        <v>255.40899999999999</v>
       </c>
       <c r="E18">
-        <v>552.10699999999997</v>
+        <v>257.68900000000002</v>
       </c>
       <c r="F18">
-        <v>348.10399999999998</v>
+        <v>130.96799999999999</v>
       </c>
       <c r="G18">
-        <v>1096.6579999999999</v>
+        <v>487.84500000000003</v>
       </c>
       <c r="H18">
-        <v>1904.3510000000001</v>
+        <v>861.19399999999996</v>
       </c>
       <c r="I18">
-        <v>16.802</v>
+        <v>12.706</v>
       </c>
       <c r="J18">
-        <v>387.9</v>
+        <v>150</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,37 +2217,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1215.2180000000001</v>
+        <v>529.19799999999998</v>
       </c>
       <c r="O18">
-        <v>1743.18</v>
+        <v>731.14599999999996</v>
       </c>
       <c r="P18">
-        <v>407.9</v>
+        <v>190</v>
       </c>
       <c r="Q18">
-        <v>24.082000000000001</v>
+        <v>3.4849999999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>6758</v>
+        <v>3625</v>
       </c>
       <c r="T18">
-        <v>161.17099999999999</v>
+        <v>130.048</v>
       </c>
       <c r="U18">
-        <v>365.30200000000002</v>
+        <v>160.126</v>
       </c>
       <c r="V18">
-        <v>71.17</v>
+        <v>1.927</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-12.183999999999999</v>
+        <v>1.4419999999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,39 +2256,39 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>59.143999999999998</v>
+        <v>5.2370000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>28.350999999999999</v>
+        <v>-14.707000000000001</v>
       </c>
       <c r="D19">
-        <v>471.18599999999998</v>
+        <v>199.82400000000001</v>
       </c>
       <c r="E19">
-        <v>526.38400000000001</v>
+        <v>233.28399999999999</v>
       </c>
       <c r="F19">
-        <v>293.42399999999998</v>
+        <v>104.54600000000001</v>
       </c>
       <c r="G19">
-        <v>1000.648</v>
+        <v>463.87</v>
       </c>
       <c r="H19">
-        <v>1789.37</v>
+        <v>829.12199999999996</v>
       </c>
       <c r="I19">
-        <v>240.268</v>
+        <v>148.499</v>
       </c>
       <c r="J19">
-        <v>384.74</v>
+        <v>140</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,40 +2297,40 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="N19">
-        <v>1420.731</v>
+        <v>522.20299999999997</v>
       </c>
       <c r="O19">
-        <v>1928.883</v>
+        <v>713.60900000000004</v>
       </c>
       <c r="P19">
-        <v>669.74</v>
+        <v>180</v>
       </c>
       <c r="Q19">
-        <v>-83.649000000000001</v>
+        <v>-1.405</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>7060</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>-139.51300000000001</v>
+        <v>115.51300000000001</v>
       </c>
       <c r="U19">
-        <v>281.65300000000002</v>
+        <v>158.721</v>
       </c>
       <c r="V19">
-        <v>5.6630000000000003</v>
+        <v>14.585000000000001</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-54.41</v>
+        <v>-6.3959999999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2339,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>28.350999999999999</v>
+        <v>-14.707000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>51.155000000000001</v>
+        <v>-0.81899999999999995</v>
       </c>
       <c r="D20">
-        <v>547.93600000000004</v>
+        <v>274.56900000000002</v>
       </c>
       <c r="E20">
-        <v>527.61500000000001</v>
+        <v>236.82300000000001</v>
       </c>
       <c r="F20">
-        <v>337.44099999999997</v>
+        <v>134.05199999999999</v>
       </c>
       <c r="G20">
-        <v>1066.068</v>
+        <v>379.42</v>
       </c>
       <c r="H20">
-        <v>1861.039</v>
+        <v>950.04499999999996</v>
       </c>
       <c r="I20">
-        <v>262.28399999999999</v>
+        <v>178.733</v>
       </c>
       <c r="J20">
-        <v>699.01800000000003</v>
+        <v>190.05099999999999</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2383,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1204.52</v>
+        <v>589.11900000000003</v>
       </c>
       <c r="O20">
-        <v>2031.194</v>
+        <v>830.07899999999995</v>
       </c>
       <c r="P20">
-        <v>719.01800000000003</v>
+        <v>250.07</v>
       </c>
       <c r="Q20">
-        <v>75.927999999999997</v>
+        <v>-88.241</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>7385</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>-170.155</v>
+        <v>119.96599999999999</v>
       </c>
       <c r="U20">
-        <v>357.58100000000002</v>
+        <v>70.48</v>
       </c>
       <c r="V20">
-        <v>143.74</v>
+        <v>-0.61399999999999999</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-62.091000000000001</v>
+        <v>73.954999999999998</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2422,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>51.155000000000001</v>
+        <v>-0.81899999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>30.366</v>
+        <v>-1.7210000000000001</v>
       </c>
       <c r="D21">
-        <v>500.166</v>
+        <v>225.31100000000001</v>
       </c>
       <c r="E21">
-        <v>482.30200000000002</v>
+        <v>238.744</v>
       </c>
       <c r="F21">
-        <v>306.56400000000002</v>
+        <v>113.20699999999999</v>
       </c>
       <c r="G21">
-        <v>1061.3989999999999</v>
+        <v>400.92200000000003</v>
       </c>
       <c r="H21">
-        <v>2091.5419999999999</v>
+        <v>961.58399999999995</v>
       </c>
       <c r="I21">
-        <v>289.97699999999998</v>
+        <v>200.691</v>
       </c>
       <c r="J21">
-        <v>820</v>
+        <v>185</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2466,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1235.0999999999999</v>
+        <v>624.49400000000003</v>
       </c>
       <c r="O21">
-        <v>2251.1309999999999</v>
+        <v>837.70799999999997</v>
       </c>
       <c r="P21">
-        <v>840</v>
+        <v>250</v>
       </c>
       <c r="Q21">
-        <v>13.663</v>
+        <v>9.9789999999999992</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>7596</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>-159.589</v>
+        <v>123.876</v>
       </c>
       <c r="U21">
-        <v>371.24400000000003</v>
+        <v>80.459000000000003</v>
       </c>
       <c r="V21">
-        <v>116.904</v>
+        <v>13.629</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>115.306</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AA21">
-        <v>30.366</v>
+        <v>-1.7210000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>65.763000000000005</v>
+        <v>14.81</v>
       </c>
       <c r="D22">
-        <v>643.76800000000003</v>
+        <v>289.3</v>
       </c>
       <c r="E22">
-        <v>580.76300000000003</v>
+        <v>313.19499999999999</v>
       </c>
       <c r="F22">
-        <v>386.55099999999999</v>
+        <v>150.58799999999999</v>
       </c>
       <c r="G22">
-        <v>1140.9970000000001</v>
+        <v>462.11900000000003</v>
       </c>
       <c r="H22">
-        <v>2168.5169999999998</v>
+        <v>1026.617</v>
       </c>
       <c r="I22">
-        <v>31.57</v>
+        <v>12.071</v>
       </c>
       <c r="J22">
-        <v>788.96299999999997</v>
+        <v>180</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2549,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1323.492</v>
+        <v>642.76800000000003</v>
       </c>
       <c r="O22">
-        <v>2300.9169999999999</v>
+        <v>880.029</v>
       </c>
       <c r="P22">
-        <v>823.96299999999997</v>
+        <v>246.667</v>
       </c>
       <c r="Q22">
-        <v>1.732</v>
+        <v>-10.177</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>7834</v>
+        <v>3622</v>
       </c>
       <c r="T22">
-        <v>-132.4</v>
+        <v>146.58799999999999</v>
       </c>
       <c r="U22">
-        <v>372.976</v>
+        <v>70.281999999999996</v>
       </c>
       <c r="V22">
-        <v>79.254000000000005</v>
+        <v>-0.47799999999999998</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-66.495000000000005</v>
+        <v>2.3679999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-1.3</v>
       </c>
       <c r="AA22">
-        <v>65.763000000000005</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23">
-        <v>44.987000000000002</v>
+        <v>7.77</v>
       </c>
       <c r="D23">
-        <v>557.26599999999996</v>
+        <v>230.929</v>
       </c>
       <c r="E23">
-        <v>602.87699999999995</v>
+        <v>277.17500000000001</v>
       </c>
       <c r="F23">
-        <v>345.22500000000002</v>
+        <v>125.58</v>
       </c>
       <c r="G23">
-        <v>1179.277</v>
+        <v>419.77300000000002</v>
       </c>
       <c r="H23">
-        <v>2211.509</v>
+        <v>979.47799999999995</v>
       </c>
       <c r="I23">
-        <v>247.297</v>
+        <v>172.12899999999999</v>
       </c>
       <c r="J23">
-        <v>849.52099999999996</v>
+        <v>175</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,40 +2629,40 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-5</v>
+        <v>-3.3330000000000002</v>
       </c>
       <c r="N23">
-        <v>1291.2239999999999</v>
+        <v>595.68399999999997</v>
       </c>
       <c r="O23">
-        <v>2324.1790000000001</v>
+        <v>824.95699999999999</v>
       </c>
       <c r="P23">
-        <v>907.02099999999996</v>
+        <v>243.333</v>
       </c>
       <c r="Q23">
-        <v>30.966999999999999</v>
+        <v>-4.6420000000000003</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>8019</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>-112.67</v>
+        <v>154.52099999999999</v>
       </c>
       <c r="U23">
-        <v>403.94299999999998</v>
+        <v>65.64</v>
       </c>
       <c r="V23">
-        <v>13.331</v>
+        <v>6.1050000000000004</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>22.093</v>
+        <v>-7.2229999999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,39 +2671,39 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>44.987000000000002</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>51.627000000000002</v>
+        <v>18.244</v>
       </c>
       <c r="D24">
-        <v>609.99800000000005</v>
+        <v>284.09300000000002</v>
       </c>
       <c r="E24">
-        <v>613.79499999999996</v>
+        <v>285.67500000000001</v>
       </c>
       <c r="F24">
-        <v>378.57600000000002</v>
+        <v>146.81</v>
       </c>
       <c r="G24">
-        <v>1233.6559999999999</v>
+        <v>422.303</v>
       </c>
       <c r="H24">
-        <v>2304.5210000000002</v>
+        <v>984.75400000000002</v>
       </c>
       <c r="I24">
-        <v>287.38299999999998</v>
+        <v>186.06800000000001</v>
       </c>
       <c r="J24">
-        <v>776.27800000000002</v>
+        <v>170</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,37 +2715,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1387.241</v>
+        <v>585.50900000000001</v>
       </c>
       <c r="O24">
-        <v>2357.3490000000002</v>
+        <v>809.51700000000005</v>
       </c>
       <c r="P24">
-        <v>846.27800000000002</v>
+        <v>230</v>
       </c>
       <c r="Q24">
-        <v>41.11</v>
+        <v>3.427</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>8338</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>-52.828000000000003</v>
+        <v>175.23699999999999</v>
       </c>
       <c r="U24">
-        <v>445.053</v>
+        <v>69.066999999999993</v>
       </c>
       <c r="V24">
-        <v>148.452</v>
+        <v>26.873999999999999</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-64.332999999999998</v>
+        <v>-20.742000000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2754,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>51.625999999999998</v>
+        <v>18.244</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>30.483000000000001</v>
+        <v>9.6080000000000005</v>
       </c>
       <c r="D25">
-        <v>574.05899999999997</v>
+        <v>241.36</v>
       </c>
       <c r="E25">
-        <v>560.202</v>
+        <v>284.87900000000002</v>
       </c>
       <c r="F25">
-        <v>350.93700000000001</v>
+        <v>125.101</v>
       </c>
       <c r="G25">
-        <v>1245.9490000000001</v>
+        <v>452.947</v>
       </c>
       <c r="H25">
-        <v>2277.7399999999998</v>
+        <v>1013.597</v>
       </c>
       <c r="I25">
-        <v>348.36200000000002</v>
+        <v>192.00399999999999</v>
       </c>
       <c r="J25">
-        <v>711.31200000000001</v>
+        <v>160</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2798,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1417.424</v>
+        <v>613.38300000000004</v>
       </c>
       <c r="O25">
-        <v>2288.2379999999998</v>
+        <v>826.92499999999995</v>
       </c>
       <c r="P25">
-        <v>751.31200000000001</v>
+        <v>220</v>
       </c>
       <c r="Q25">
-        <v>20.681000000000001</v>
+        <v>23.846</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>8584</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>-10.497999999999999</v>
+        <v>186.672</v>
       </c>
       <c r="U25">
-        <v>465.73399999999998</v>
+        <v>92.912999999999997</v>
       </c>
       <c r="V25">
-        <v>120.48</v>
+        <v>41.743000000000002</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-88.692999999999998</v>
+        <v>-13.478999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2837,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>30.484000000000002</v>
+        <v>9.6080000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>66.484999999999999</v>
+        <v>22.57</v>
       </c>
       <c r="D26">
-        <v>703.21699999999998</v>
+        <v>303.93900000000002</v>
       </c>
       <c r="E26">
-        <v>643.01300000000003</v>
+        <v>328.38299999999998</v>
       </c>
       <c r="F26">
-        <v>424.154</v>
+        <v>157.5</v>
       </c>
       <c r="G26">
-        <v>1343.1959999999999</v>
+        <v>484.03300000000002</v>
       </c>
       <c r="H26">
-        <v>2367.335</v>
+        <v>1039.7929999999999</v>
       </c>
       <c r="I26">
-        <v>41.009</v>
+        <v>13.333</v>
       </c>
       <c r="J26">
-        <v>664.39099999999996</v>
+        <v>150</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,37 +2881,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1460.249</v>
+        <v>803.88300000000004</v>
       </c>
       <c r="O26">
-        <v>2306.4569999999999</v>
+        <v>1013.475</v>
       </c>
       <c r="P26">
-        <v>694.39099999999996</v>
+        <v>370</v>
       </c>
       <c r="Q26">
-        <v>8.4990000000000006</v>
+        <v>-25.111999999999998</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>8813</v>
+        <v>3784</v>
       </c>
       <c r="T26">
-        <v>60.878</v>
+        <v>26.318000000000001</v>
       </c>
       <c r="U26">
-        <v>474.233</v>
+        <v>67.801000000000002</v>
       </c>
       <c r="V26">
-        <v>83.369</v>
+        <v>31.542000000000002</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-43.753</v>
+        <v>-50.081000000000003</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,39 +2920,39 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>66.484999999999999</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>36.433</v>
+        <v>8.1920000000000002</v>
       </c>
       <c r="D27">
-        <v>625.16899999999998</v>
+        <v>264.197</v>
       </c>
       <c r="E27">
-        <v>716.48699999999997</v>
+        <v>309.74799999999999</v>
       </c>
       <c r="F27">
-        <v>387.56</v>
+        <v>140.84100000000001</v>
       </c>
       <c r="G27">
-        <v>2175.6950000000002</v>
+        <v>499.767</v>
       </c>
       <c r="H27">
-        <v>3365.3</v>
+        <v>1057.432</v>
       </c>
       <c r="I27">
-        <v>331.66899999999998</v>
+        <v>127.417</v>
       </c>
       <c r="J27">
-        <v>1605.961</v>
+        <v>171</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,40 +2961,40 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-370</v>
       </c>
       <c r="N27">
-        <v>1470.356</v>
+        <v>766.61199999999997</v>
       </c>
       <c r="O27">
-        <v>3262.4830000000002</v>
+        <v>1022.004</v>
       </c>
       <c r="P27">
-        <v>1635.327</v>
+        <v>405</v>
       </c>
       <c r="Q27">
-        <v>771.80799999999999</v>
+        <v>23.292999999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>102.81699999999999</v>
+        <v>35.427999999999997</v>
       </c>
       <c r="U27">
-        <v>1227.8910000000001</v>
+        <v>91.093999999999994</v>
       </c>
       <c r="V27">
-        <v>-29.605</v>
+        <v>-0.222</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>917.27099999999996</v>
+        <v>27.428000000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +3003,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>36.433</v>
+        <v>8.1920000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28">
-        <v>-92.281000000000006</v>
+        <v>14.048</v>
       </c>
       <c r="D28">
-        <v>843.73099999999999</v>
+        <v>292.84800000000001</v>
       </c>
       <c r="E28">
-        <v>886.39300000000003</v>
+        <v>303.50799999999998</v>
       </c>
       <c r="F28">
-        <v>491.72699999999998</v>
+        <v>156.006</v>
       </c>
       <c r="G28">
-        <v>1759.9739999999999</v>
+        <v>515.65800000000002</v>
       </c>
       <c r="H28">
-        <v>6994.8869999999997</v>
+        <v>1079.5050000000001</v>
       </c>
       <c r="I28">
-        <v>517.01700000000005</v>
+        <v>177.905</v>
       </c>
       <c r="J28">
-        <v>3150.4859999999999</v>
+        <v>166.5</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,37 +3047,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2243.9070000000002</v>
+        <v>748.58799999999997</v>
       </c>
       <c r="O28">
-        <v>6141.2120000000004</v>
+        <v>999.04399999999998</v>
       </c>
       <c r="P28">
-        <v>3428.0639999999999</v>
+        <v>360</v>
       </c>
       <c r="Q28">
-        <v>-638.59500000000003</v>
+        <v>11.744</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>853.67499999999995</v>
+        <v>80.460999999999999</v>
       </c>
       <c r="U28">
-        <v>589.28200000000004</v>
+        <v>102.83799999999999</v>
       </c>
       <c r="V28">
-        <v>112.32299999999999</v>
+        <v>43.914999999999999</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>1768.623</v>
+        <v>-25.96</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3086,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>-92.281000000000006</v>
+        <v>14.048</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29">
-        <v>-48.18</v>
+        <v>12.494</v>
       </c>
       <c r="D29">
-        <v>828.08500000000004</v>
+        <v>268.274</v>
       </c>
       <c r="E29">
-        <v>874.28300000000002</v>
+        <v>314.84399999999999</v>
       </c>
       <c r="F29">
-        <v>495.87799999999999</v>
+        <v>144.203</v>
       </c>
       <c r="G29">
-        <v>1812.2829999999999</v>
+        <v>530.81799999999998</v>
       </c>
       <c r="H29">
-        <v>7011.4920000000002</v>
+        <v>1106.0820000000001</v>
       </c>
       <c r="I29">
-        <v>550.11900000000003</v>
+        <v>179.328</v>
       </c>
       <c r="J29">
-        <v>2930.2379999999998</v>
+        <v>162</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3130,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2482.0349999999999</v>
+        <v>786.40800000000002</v>
       </c>
       <c r="O29">
-        <v>6148.0820000000003</v>
+        <v>1034.8320000000001</v>
       </c>
       <c r="P29">
-        <v>3349.8389999999999</v>
+        <v>367</v>
       </c>
       <c r="Q29">
-        <v>15.609</v>
+        <v>14.87</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>863.41</v>
+        <v>71.25</v>
       </c>
       <c r="U29">
-        <v>630.01599999999996</v>
+        <v>117.708</v>
       </c>
       <c r="V29">
-        <v>149.54900000000001</v>
+        <v>38.802</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-80.326999999999998</v>
+        <v>-23.113</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3169,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>-48.18</v>
+        <v>12.494</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30">
-        <v>107.307</v>
+        <v>38.819000000000003</v>
       </c>
       <c r="D30">
-        <v>1014.509</v>
+        <v>343.15600000000001</v>
       </c>
       <c r="E30">
-        <v>1203.5150000000001</v>
+        <v>354.92599999999999</v>
       </c>
       <c r="F30">
-        <v>616.13099999999997</v>
+        <v>196.61799999999999</v>
       </c>
       <c r="G30">
-        <v>2588.6080000000002</v>
+        <v>557.79</v>
       </c>
       <c r="H30">
-        <v>7283.1729999999998</v>
+        <v>1133.21</v>
       </c>
       <c r="I30">
-        <v>49</v>
+        <v>11.263999999999999</v>
       </c>
       <c r="J30">
-        <v>2899.1239999999998</v>
+        <v>157.5</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,37 +3213,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2822.585</v>
+        <v>876.01199999999994</v>
       </c>
       <c r="O30">
-        <v>6299.7079999999996</v>
+        <v>1115.712</v>
       </c>
       <c r="P30">
-        <v>3278.8449999999998</v>
+        <v>394</v>
       </c>
       <c r="Q30">
-        <v>-81.117999999999995</v>
+        <v>-7.7629999999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>15131</v>
+        <v>4006</v>
       </c>
       <c r="T30">
-        <v>983.46500000000003</v>
+        <v>17.498000000000001</v>
       </c>
       <c r="U30">
-        <v>538.90800000000002</v>
+        <v>109.94499999999999</v>
       </c>
       <c r="V30">
-        <v>22.25</v>
+        <v>65.84</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-65.736999999999995</v>
+        <v>-72.05</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,39 +3252,39 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>107.307</v>
+        <v>38.819000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31">
-        <v>-19.587</v>
+        <v>21.544</v>
       </c>
       <c r="D31">
-        <v>963.56500000000005</v>
+        <v>290.09899999999999</v>
       </c>
       <c r="E31">
-        <v>1162.557</v>
+        <v>327.24299999999999</v>
       </c>
       <c r="F31">
-        <v>606.35599999999999</v>
+        <v>159.499</v>
       </c>
       <c r="G31">
-        <v>2310.6619999999998</v>
+        <v>520.80999999999995</v>
       </c>
       <c r="H31">
-        <v>6915.0280000000002</v>
+        <v>1095.8009999999999</v>
       </c>
       <c r="I31">
-        <v>532.04300000000001</v>
+        <v>147.16</v>
       </c>
       <c r="J31">
-        <v>2186.0610000000001</v>
+        <v>153</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,40 +3293,40 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-304.81299999999999</v>
+        <v>-3</v>
       </c>
       <c r="N31">
-        <v>3185.8560000000002</v>
+        <v>872.32100000000003</v>
       </c>
       <c r="O31">
-        <v>5927.4570000000003</v>
+        <v>1113.412</v>
       </c>
       <c r="P31">
-        <v>2975.7849999999999</v>
+        <v>421</v>
       </c>
       <c r="Q31">
-        <v>-339.428</v>
+        <v>-14.01</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>987.57100000000003</v>
+        <v>-17.611000000000001</v>
       </c>
       <c r="U31">
-        <v>189.97900000000001</v>
+        <v>95.935000000000002</v>
       </c>
       <c r="V31">
-        <v>2.7240000000000002</v>
+        <v>14.217000000000001</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-329.08300000000003</v>
+        <v>-31.826000000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3335,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>-19.587</v>
+        <v>21.544</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32">
-        <v>46.27</v>
+        <v>29.9</v>
       </c>
       <c r="D32">
-        <v>1001.336</v>
+        <v>343.93900000000002</v>
       </c>
       <c r="E32">
-        <v>1115.9010000000001</v>
+        <v>313.25900000000001</v>
       </c>
       <c r="F32">
-        <v>633.69899999999996</v>
+        <v>187.46100000000001</v>
       </c>
       <c r="G32">
-        <v>1608.4839999999999</v>
+        <v>540.63499999999999</v>
       </c>
       <c r="H32">
-        <v>6152.9369999999999</v>
+        <v>1120.925</v>
       </c>
       <c r="I32">
-        <v>541.66999999999996</v>
+        <v>180.48599999999999</v>
       </c>
       <c r="J32">
-        <v>2146.8290000000002</v>
+        <v>271.5</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3379,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2513.8040000000001</v>
+        <v>806.79499999999996</v>
       </c>
       <c r="O32">
-        <v>5231.5050000000001</v>
+        <v>1162.539</v>
       </c>
       <c r="P32">
-        <v>2430.8380000000002</v>
+        <v>469.75</v>
       </c>
       <c r="Q32">
-        <v>-67.674000000000007</v>
+        <v>40.962000000000003</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>921.43200000000002</v>
+        <v>-41.613999999999997</v>
       </c>
       <c r="U32">
-        <v>141.80500000000001</v>
+        <v>136.89699999999999</v>
       </c>
       <c r="V32">
-        <v>174.023</v>
+        <v>67.628</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-618.16999999999996</v>
+        <v>-21.963999999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3418,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>46.27</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33">
-        <v>11.753</v>
+        <v>18.780999999999999</v>
       </c>
       <c r="D33">
-        <v>921.67399999999998</v>
+        <v>297.70600000000002</v>
       </c>
       <c r="E33">
-        <v>1011.741</v>
+        <v>303.66199999999998</v>
       </c>
       <c r="F33">
-        <v>585.56200000000001</v>
+        <v>169.21600000000001</v>
       </c>
       <c r="G33">
-        <v>1535.34</v>
+        <v>543.827</v>
       </c>
       <c r="H33">
-        <v>5944.817</v>
+        <v>1115.4159999999999</v>
       </c>
       <c r="I33">
-        <v>599.221</v>
+        <v>189.06399999999999</v>
       </c>
       <c r="J33">
-        <v>2077.4659999999999</v>
+        <v>255</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3462,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2343.596</v>
+        <v>797.15</v>
       </c>
       <c r="O33">
-        <v>5003.2690000000002</v>
+        <v>1130.374</v>
       </c>
       <c r="P33">
-        <v>2170.7600000000002</v>
+        <v>424.5</v>
       </c>
       <c r="Q33">
-        <v>53.335999999999999</v>
+        <v>8.2739999999999991</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>14700</v>
+        <v>4000</v>
       </c>
       <c r="T33">
-        <v>941.548</v>
+        <v>-14.958</v>
       </c>
       <c r="U33">
-        <v>210.99700000000001</v>
+        <v>145.17099999999999</v>
       </c>
       <c r="V33">
-        <v>249.26400000000001</v>
+        <v>55.575000000000003</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-266.303</v>
+        <v>-34.837000000000003</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3501,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>11.753</v>
+        <v>18.780999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34">
-        <v>84.02</v>
+        <v>33.646000000000001</v>
       </c>
       <c r="D34">
-        <v>1088.8789999999999</v>
+        <v>347.32100000000003</v>
       </c>
       <c r="E34">
-        <v>1281.2370000000001</v>
+        <v>318.51100000000002</v>
       </c>
       <c r="F34">
-        <v>681.03700000000003</v>
+        <v>190.68199999999999</v>
       </c>
       <c r="G34">
-        <v>1811.739</v>
+        <v>554.524</v>
       </c>
       <c r="H34">
-        <v>6201.4740000000002</v>
+        <v>1093.0650000000001</v>
       </c>
       <c r="I34">
-        <v>37.508000000000003</v>
+        <v>12.13</v>
       </c>
       <c r="J34">
-        <v>2126.79</v>
+        <v>253.2</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,37 +3545,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2620.9349999999999</v>
+        <v>792.40899999999999</v>
       </c>
       <c r="O34">
-        <v>5350.7169999999996</v>
+        <v>1114.3810000000001</v>
       </c>
       <c r="P34">
-        <v>2292.3679999999999</v>
+        <v>430.95</v>
       </c>
       <c r="Q34">
-        <v>-54.628999999999998</v>
+        <v>-4.242</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>15173</v>
+        <v>4198</v>
       </c>
       <c r="T34">
-        <v>850.75699999999995</v>
+        <v>-21.315999999999999</v>
       </c>
       <c r="U34">
-        <v>156.36799999999999</v>
+        <v>140.929</v>
       </c>
       <c r="V34">
-        <v>45.146999999999998</v>
+        <v>46.93</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-43.558999999999997</v>
+        <v>-31.207999999999998</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,39 +3584,39 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>84.02</v>
+        <v>33.646000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35">
-        <v>20.795000000000002</v>
+        <v>19.995999999999999</v>
       </c>
       <c r="D35">
-        <v>970.44399999999996</v>
+        <v>273.53300000000002</v>
       </c>
       <c r="E35">
-        <v>1208.711</v>
+        <v>259.03899999999999</v>
       </c>
       <c r="F35">
-        <v>623.79899999999998</v>
+        <v>156.88900000000001</v>
       </c>
       <c r="G35">
-        <v>1716.0129999999999</v>
+        <v>418.21</v>
       </c>
       <c r="H35">
-        <v>6714.6750000000002</v>
+        <v>948.69100000000003</v>
       </c>
       <c r="I35">
-        <v>458.90100000000001</v>
+        <v>151.78800000000001</v>
       </c>
       <c r="J35">
-        <v>2125.3760000000002</v>
+        <v>222</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3625,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-18.681999999999999</v>
+        <v>-78.25</v>
       </c>
       <c r="N35">
-        <v>2568.9180000000001</v>
+        <v>641.54899999999998</v>
       </c>
       <c r="O35">
-        <v>5857.7780000000002</v>
+        <v>944.21900000000005</v>
       </c>
       <c r="P35">
-        <v>3166.69</v>
+        <v>338</v>
       </c>
       <c r="Q35">
-        <v>-9.3930000000000007</v>
+        <v>-70.665999999999997</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>856.89700000000005</v>
+        <v>4.4720000000000004</v>
       </c>
       <c r="U35">
-        <v>149.27000000000001</v>
+        <v>70.263000000000005</v>
       </c>
       <c r="V35">
-        <v>35.595999999999997</v>
+        <v>14.827</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-23.437999999999999</v>
+        <v>-79.506</v>
       </c>
       <c r="Y35">
-        <v>769.15499999999997</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>20.795000000000002</v>
+        <v>19.995999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36">
-        <v>103.40600000000001</v>
+        <v>17.184999999999999</v>
       </c>
       <c r="D36">
-        <v>1070.8820000000001</v>
+        <v>269.971</v>
       </c>
       <c r="E36">
-        <v>1140.3109999999999</v>
+        <v>252.22800000000001</v>
       </c>
       <c r="F36">
-        <v>682.88300000000004</v>
+        <v>152.87100000000001</v>
       </c>
       <c r="G36">
-        <v>1691.104</v>
+        <v>435.98899999999998</v>
       </c>
       <c r="H36">
-        <v>6729.6409999999996</v>
+        <v>972.20799999999997</v>
       </c>
       <c r="I36">
-        <v>490.96199999999999</v>
+        <v>164.10499999999999</v>
       </c>
       <c r="J36">
-        <v>2123.7220000000002</v>
+        <v>197.25</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3711,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2482.1509999999998</v>
+        <v>661.89099999999996</v>
       </c>
       <c r="O36">
-        <v>5765.8389999999999</v>
+        <v>936.09699999999998</v>
       </c>
       <c r="P36">
-        <v>3086.3719999999998</v>
+        <v>316.5</v>
       </c>
       <c r="Q36">
-        <v>69.183000000000007</v>
+        <v>26.701000000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>963.80200000000002</v>
+        <v>36.110999999999997</v>
       </c>
       <c r="U36">
-        <v>218.453</v>
+        <v>96.963999999999999</v>
       </c>
       <c r="V36">
-        <v>227.482</v>
+        <v>47.707000000000001</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-118.69</v>
+        <v>-19.14</v>
       </c>
       <c r="Y36">
-        <v>768.24300000000005</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>103.40600000000001</v>
+        <v>17.184999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37">
-        <v>41.387999999999998</v>
+        <v>20.067</v>
       </c>
       <c r="D37">
-        <v>1000.502</v>
+        <v>267.46899999999999</v>
       </c>
       <c r="E37">
-        <v>1053.2249999999999</v>
+        <v>251.05</v>
       </c>
       <c r="F37">
-        <v>635.44600000000003</v>
+        <v>149.34899999999999</v>
       </c>
       <c r="G37">
-        <v>1706.5050000000001</v>
+        <v>455.70699999999999</v>
       </c>
       <c r="H37">
-        <v>6737.3440000000001</v>
+        <v>996.84</v>
       </c>
       <c r="I37">
-        <v>513.30499999999995</v>
+        <v>173.39699999999999</v>
       </c>
       <c r="J37">
-        <v>2131.7399999999998</v>
+        <v>156.15</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3794,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2527.2629999999999</v>
+        <v>696.20899999999995</v>
       </c>
       <c r="O37">
-        <v>5817.6869999999999</v>
+        <v>922.01599999999996</v>
       </c>
       <c r="P37">
-        <v>3118.9050000000002</v>
+        <v>276.14999999999998</v>
       </c>
       <c r="Q37">
-        <v>88.274000000000001</v>
+        <v>15.814</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>919.65700000000004</v>
+        <v>74.823999999999998</v>
       </c>
       <c r="U37">
-        <v>306.72699999999998</v>
+        <v>112.77800000000001</v>
       </c>
       <c r="V37">
-        <v>219.523</v>
+        <v>55.106000000000002</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-90.685000000000002</v>
+        <v>-43.640999999999998</v>
       </c>
       <c r="Y37">
-        <v>776.56200000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>41.387999999999998</v>
+        <v>20.067</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38">
-        <v>67.700999999999993</v>
+        <v>25.716000000000001</v>
       </c>
       <c r="D38">
-        <v>1203.4929999999999</v>
+        <v>328.827</v>
       </c>
       <c r="E38">
-        <v>1347.3620000000001</v>
+        <v>317.59800000000001</v>
       </c>
       <c r="F38">
-        <v>752.625</v>
+        <v>182.328</v>
       </c>
       <c r="G38">
-        <v>2018.741</v>
+        <v>557.82500000000005</v>
       </c>
       <c r="H38">
-        <v>7151.2939999999999</v>
+        <v>1215.279</v>
       </c>
       <c r="I38">
-        <v>32.994999999999997</v>
+        <v>14.311999999999999</v>
       </c>
       <c r="J38">
-        <v>2108.7190000000001</v>
+        <v>133.363</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3877,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2856.5340000000001</v>
+        <v>898.173</v>
       </c>
       <c r="O38">
-        <v>6212.701</v>
+        <v>1102.7439999999999</v>
       </c>
       <c r="P38">
-        <v>3157.4859999999999</v>
+        <v>338.363</v>
       </c>
       <c r="Q38">
-        <v>-25.890999999999998</v>
+        <v>3.7959999999999998</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>16724</v>
+        <v>4305</v>
       </c>
       <c r="T38">
-        <v>938.59299999999996</v>
+        <v>112.535</v>
       </c>
       <c r="U38">
-        <v>280.83600000000001</v>
+        <v>116.574</v>
       </c>
       <c r="V38">
-        <v>82.834999999999994</v>
+        <v>44.296999999999997</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-53.179000000000002</v>
+        <v>68.507000000000005</v>
       </c>
       <c r="Y38">
-        <v>832.53300000000002</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>14.12</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>67.700999999999993</v>
+        <v>25.716000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39">
-        <v>75.096999999999994</v>
+        <v>19.402999999999999</v>
       </c>
       <c r="D39">
-        <v>1018.891</v>
+        <v>295.83300000000003</v>
       </c>
       <c r="E39">
-        <v>1168.123</v>
+        <v>303.16500000000002</v>
       </c>
       <c r="F39">
-        <v>677.61300000000006</v>
+        <v>172.78700000000001</v>
       </c>
       <c r="G39">
-        <v>1772.6179999999999</v>
+        <v>534.27200000000005</v>
       </c>
       <c r="H39">
-        <v>6800.3459999999995</v>
+        <v>1180.827</v>
       </c>
       <c r="I39">
-        <v>456.66800000000001</v>
+        <v>148.904</v>
       </c>
       <c r="J39">
-        <v>2161.59</v>
+        <v>111.407</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3957,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-0.96699999999999997</v>
+        <v>-14</v>
       </c>
       <c r="N39">
-        <v>2530.3380000000002</v>
+        <v>882.45399999999995</v>
       </c>
       <c r="O39">
-        <v>5910.0709999999999</v>
+        <v>1064.875</v>
       </c>
       <c r="P39">
-        <v>3201.2</v>
+        <v>375.40699999999998</v>
       </c>
       <c r="Q39">
-        <v>-52.985999999999997</v>
+        <v>-10.661</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>890.27499999999998</v>
+        <v>115.952</v>
       </c>
       <c r="U39">
-        <v>227.85</v>
+        <v>105.913</v>
       </c>
       <c r="V39">
-        <v>55.749000000000002</v>
+        <v>-7.9660000000000002</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-68.489999999999995</v>
+        <v>14.73</v>
       </c>
       <c r="Y39">
-        <v>813.88300000000004</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>75.096999999999994</v>
+        <v>19.402999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40">
-        <v>55.076999999999998</v>
+        <v>20.113</v>
       </c>
       <c r="D40">
-        <v>973.13499999999999</v>
+        <v>314.19499999999999</v>
       </c>
       <c r="E40">
-        <v>1071.2149999999999</v>
+        <v>284.09800000000001</v>
       </c>
       <c r="F40">
-        <v>650.58399999999995</v>
+        <v>175.85900000000001</v>
       </c>
       <c r="G40">
-        <v>1767.1849999999999</v>
+        <v>517.96699999999998</v>
       </c>
       <c r="H40">
-        <v>6810.2939999999999</v>
+        <v>1174.271</v>
       </c>
       <c r="I40">
-        <v>621.27200000000005</v>
+        <v>156.38300000000001</v>
       </c>
       <c r="J40">
-        <v>2031.4069999999999</v>
+        <v>83.903000000000006</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4043,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2539.3220000000001</v>
+        <v>892.49599999999998</v>
       </c>
       <c r="O40">
-        <v>5819.0749999999998</v>
+        <v>1067.29</v>
       </c>
       <c r="P40">
-        <v>2986.2510000000002</v>
+        <v>363.65300000000002</v>
       </c>
       <c r="Q40">
-        <v>128.78299999999999</v>
+        <v>16.451000000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>991.21900000000005</v>
+        <v>106.98099999999999</v>
       </c>
       <c r="U40">
-        <v>356.63299999999998</v>
+        <v>122.364</v>
       </c>
       <c r="V40">
-        <v>343.16800000000001</v>
+        <v>69.558000000000007</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-207.26300000000001</v>
+        <v>-43.015999999999998</v>
       </c>
       <c r="Y40">
-        <v>802.11900000000003</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>55.076999999999998</v>
+        <v>20.113</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41">
-        <v>16.963999999999999</v>
+        <v>20.074999999999999</v>
       </c>
       <c r="D41">
-        <v>994.61800000000005</v>
+        <v>296.12200000000001</v>
       </c>
       <c r="E41">
-        <v>972.85400000000004</v>
+        <v>299.98700000000002</v>
       </c>
       <c r="F41">
-        <v>664.851</v>
+        <v>170.22499999999999</v>
       </c>
       <c r="G41">
-        <v>1865.404</v>
+        <v>571.84799999999996</v>
       </c>
       <c r="H41">
-        <v>6840.6019999999999</v>
+        <v>1236.373</v>
       </c>
       <c r="I41">
-        <v>673.05799999999999</v>
+        <v>176.00299999999999</v>
       </c>
       <c r="J41">
-        <v>2043.299</v>
+        <v>57.066000000000003</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4126,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2521.5619999999999</v>
+        <v>927.37699999999995</v>
       </c>
       <c r="O41">
-        <v>5803.0990000000002</v>
+        <v>1082.1500000000001</v>
       </c>
       <c r="P41">
-        <v>2966.6120000000001</v>
+        <v>305.56599999999997</v>
       </c>
       <c r="Q41">
-        <v>197.08199999999999</v>
+        <v>26.047999999999998</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>1037.5029999999999</v>
+        <v>154.22300000000001</v>
       </c>
       <c r="U41">
-        <v>553.71500000000003</v>
+        <v>148.41200000000001</v>
       </c>
       <c r="V41">
-        <v>243.91300000000001</v>
+        <v>64.783000000000001</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-42.271999999999998</v>
+        <v>-45.234999999999999</v>
       </c>
       <c r="Y41">
-        <v>785.70500000000004</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>16.963999999999999</v>
+        <v>20.074999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
+        <v>40543</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42">
+        <v>36.694000000000003</v>
+      </c>
+      <c r="D42">
+        <v>382.30399999999997</v>
+      </c>
+      <c r="E42">
+        <v>364.81799999999998</v>
+      </c>
+      <c r="F42">
+        <v>217.345</v>
+      </c>
+      <c r="G42">
+        <v>621.10199999999998</v>
+      </c>
+      <c r="H42">
+        <v>1285.6579999999999</v>
+      </c>
+      <c r="I42">
+        <v>17.791</v>
+      </c>
+      <c r="J42">
+        <v>186.06700000000001</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>811.15200000000004</v>
+      </c>
+      <c r="O42">
+        <v>1098.6020000000001</v>
+      </c>
+      <c r="P42">
+        <v>226.22300000000001</v>
+      </c>
+      <c r="Q42">
+        <v>-28.231000000000002</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>4461</v>
+      </c>
+      <c r="T42">
+        <v>187.05600000000001</v>
+      </c>
+      <c r="U42">
+        <v>120.181</v>
+      </c>
+      <c r="V42">
+        <v>79.123999999999995</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-98.034999999999997</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>36.694000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43">
+        <v>29.190999999999999</v>
+      </c>
+      <c r="D43">
+        <v>329.56700000000001</v>
+      </c>
+      <c r="E43">
+        <v>345.03500000000003</v>
+      </c>
+      <c r="F43">
+        <v>196.251</v>
+      </c>
+      <c r="G43">
+        <v>616.24</v>
+      </c>
+      <c r="H43">
+        <v>1275.374</v>
+      </c>
+      <c r="I43">
+        <v>140.14699999999999</v>
+      </c>
+      <c r="J43">
+        <v>172.5</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-5</v>
+      </c>
+      <c r="N43">
+        <v>784.21799999999996</v>
+      </c>
+      <c r="O43">
+        <v>1065.3440000000001</v>
+      </c>
+      <c r="P43">
+        <v>258.53699999999998</v>
+      </c>
+      <c r="Q43">
+        <v>-11.178000000000001</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>4500</v>
+      </c>
+      <c r="T43">
+        <v>210.03</v>
+      </c>
+      <c r="U43">
+        <v>109.003</v>
+      </c>
+      <c r="V43">
+        <v>-24.663</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>17.786000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>29.190999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44">
+        <v>32.222999999999999</v>
+      </c>
+      <c r="D44">
+        <v>365.54300000000001</v>
+      </c>
+      <c r="E44">
+        <v>360.56400000000002</v>
+      </c>
+      <c r="F44">
+        <v>213.08199999999999</v>
+      </c>
+      <c r="G44">
+        <v>625.60900000000004</v>
+      </c>
+      <c r="H44">
+        <v>1295.972</v>
+      </c>
+      <c r="I44">
+        <v>165.43899999999999</v>
+      </c>
+      <c r="J44">
+        <v>165</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>799.36699999999996</v>
+      </c>
+      <c r="O44">
+        <v>1080.153</v>
+      </c>
+      <c r="P44">
+        <v>226.54400000000001</v>
+      </c>
+      <c r="Q44">
+        <v>16.338000000000001</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>4700</v>
+      </c>
+      <c r="T44">
+        <v>215.81899999999999</v>
+      </c>
+      <c r="U44">
+        <v>125.34099999999999</v>
+      </c>
+      <c r="V44">
+        <v>88.575999999999993</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-67.513999999999996</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>32.222999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45">
+        <v>30.463999999999999</v>
+      </c>
+      <c r="D45">
+        <v>345.78399999999999</v>
+      </c>
+      <c r="E45">
+        <v>349.28699999999998</v>
+      </c>
+      <c r="F45">
+        <v>203.08799999999999</v>
+      </c>
+      <c r="G45">
+        <v>633.68600000000004</v>
+      </c>
+      <c r="H45">
+        <v>1304.431</v>
+      </c>
+      <c r="I45">
+        <v>182.72499999999999</v>
+      </c>
+      <c r="J45">
+        <v>167.77099999999999</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>834.49199999999996</v>
+      </c>
+      <c r="O45">
+        <v>1110.364</v>
+      </c>
+      <c r="P45">
+        <v>220.93299999999999</v>
+      </c>
+      <c r="Q45">
+        <v>31.562000000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>4900</v>
+      </c>
+      <c r="T45">
+        <v>194.06700000000001</v>
+      </c>
+      <c r="U45">
+        <v>156.90299999999999</v>
+      </c>
+      <c r="V45">
+        <v>112.55200000000001</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-61.412999999999997</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>30.463999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46">
+        <v>45.024000000000001</v>
+      </c>
+      <c r="D46">
+        <v>427.69400000000002</v>
+      </c>
+      <c r="E46">
+        <v>421.03300000000002</v>
+      </c>
+      <c r="F46">
+        <v>247.41200000000001</v>
+      </c>
+      <c r="G46">
+        <v>705.78499999999997</v>
+      </c>
+      <c r="H46">
+        <v>1379.8720000000001</v>
+      </c>
+      <c r="I46">
+        <v>27.573</v>
+      </c>
+      <c r="J46">
+        <v>159.89099999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>921.13699999999994</v>
+      </c>
+      <c r="O46">
+        <v>1198.088</v>
+      </c>
+      <c r="P46">
+        <v>209.89099999999999</v>
+      </c>
+      <c r="Q46">
+        <v>-14.164</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>4975</v>
+      </c>
+      <c r="T46">
+        <v>181.78399999999999</v>
+      </c>
+      <c r="U46">
+        <v>142.739</v>
+      </c>
+      <c r="V46">
+        <v>79.100999999999999</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-75.418000000000006</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>45.024000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47">
+        <v>34.220999999999997</v>
+      </c>
+      <c r="D47">
+        <v>369.17099999999999</v>
+      </c>
+      <c r="E47">
+        <v>384.125</v>
+      </c>
+      <c r="F47">
+        <v>222.708</v>
+      </c>
+      <c r="G47">
+        <v>676.82</v>
+      </c>
+      <c r="H47">
+        <v>1349.848</v>
+      </c>
+      <c r="I47">
+        <v>160.07</v>
+      </c>
+      <c r="J47">
+        <v>149.83799999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-7.5</v>
+      </c>
+      <c r="N47">
+        <v>911.05200000000002</v>
+      </c>
+      <c r="O47">
+        <v>1178.067</v>
+      </c>
+      <c r="P47">
+        <v>250.131</v>
+      </c>
+      <c r="Q47">
+        <v>-3.754</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>5056</v>
+      </c>
+      <c r="T47">
+        <v>171.78100000000001</v>
+      </c>
+      <c r="U47">
+        <v>138.98500000000001</v>
+      </c>
+      <c r="V47">
+        <v>18.678999999999998</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-17.556000000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>34.220999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48">
+        <v>41.484000000000002</v>
+      </c>
+      <c r="D48">
+        <v>397.48200000000003</v>
+      </c>
+      <c r="E48">
+        <v>389.41399999999999</v>
+      </c>
+      <c r="F48">
+        <v>236.23500000000001</v>
+      </c>
+      <c r="G48">
+        <v>686.35</v>
+      </c>
+      <c r="H48">
+        <v>1380.115</v>
+      </c>
+      <c r="I48">
+        <v>178.52799999999999</v>
+      </c>
+      <c r="J48">
+        <v>130</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>908.35699999999997</v>
+      </c>
+      <c r="O48">
+        <v>1165.124</v>
+      </c>
+      <c r="P48">
+        <v>200.08799999999999</v>
+      </c>
+      <c r="Q48">
+        <v>11.545999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>5200</v>
+      </c>
+      <c r="T48">
+        <v>214.99100000000001</v>
+      </c>
+      <c r="U48">
+        <v>150.53100000000001</v>
+      </c>
+      <c r="V48">
+        <v>80.772999999999996</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-41.552</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>41.484000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49">
+        <v>31.375</v>
+      </c>
+      <c r="D49">
+        <v>374.40600000000001</v>
+      </c>
+      <c r="E49">
+        <v>370.95100000000002</v>
+      </c>
+      <c r="F49">
+        <v>223.26300000000001</v>
+      </c>
+      <c r="G49">
+        <v>781.97799999999995</v>
+      </c>
+      <c r="H49">
+        <v>1479.1479999999999</v>
+      </c>
+      <c r="I49">
+        <v>206.05</v>
+      </c>
+      <c r="J49">
+        <v>131</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>968.89300000000003</v>
+      </c>
+      <c r="O49">
+        <v>1217.683</v>
+      </c>
+      <c r="P49">
+        <v>211</v>
+      </c>
+      <c r="Q49">
+        <v>104.86</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>5400</v>
+      </c>
+      <c r="T49">
+        <v>261.46499999999997</v>
+      </c>
+      <c r="U49">
+        <v>255.39099999999999</v>
+      </c>
+      <c r="V49">
+        <v>109.29900000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>31.375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50">
+        <v>58.823</v>
+      </c>
+      <c r="D50">
+        <v>474.74900000000002</v>
+      </c>
+      <c r="E50">
+        <v>463.96800000000002</v>
+      </c>
+      <c r="F50">
+        <v>274.53500000000003</v>
+      </c>
+      <c r="G50">
+        <v>927.46600000000001</v>
+      </c>
+      <c r="H50">
+        <v>1621.277</v>
+      </c>
+      <c r="I50">
+        <v>27.344000000000001</v>
+      </c>
+      <c r="J50">
+        <v>125.017</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1070</v>
+      </c>
+      <c r="O50">
+        <v>1314.604</v>
+      </c>
+      <c r="P50">
+        <v>215.017</v>
+      </c>
+      <c r="Q50">
+        <v>44.460999999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>5468</v>
+      </c>
+      <c r="T50">
+        <v>306.673</v>
+      </c>
+      <c r="U50">
+        <v>299.85199999999998</v>
+      </c>
+      <c r="V50">
+        <v>71.061999999999998</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-14.196</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>58.823</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51">
+        <v>36.674999999999997</v>
+      </c>
+      <c r="D51">
+        <v>406.75400000000002</v>
+      </c>
+      <c r="E51">
+        <v>441.40499999999997</v>
+      </c>
+      <c r="F51">
+        <v>243.017</v>
+      </c>
+      <c r="G51">
+        <v>875.04</v>
+      </c>
+      <c r="H51">
+        <v>1567.395</v>
+      </c>
+      <c r="I51">
+        <v>180.876</v>
+      </c>
+      <c r="J51">
+        <v>156.58000000000001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-200</v>
+      </c>
+      <c r="N51">
+        <v>975.09199999999998</v>
+      </c>
+      <c r="O51">
+        <v>1248.2380000000001</v>
+      </c>
+      <c r="P51">
+        <v>214.08</v>
+      </c>
+      <c r="Q51">
+        <v>-30.789000000000001</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>5634</v>
+      </c>
+      <c r="T51">
+        <v>319.15699999999998</v>
+      </c>
+      <c r="U51">
+        <v>269.06299999999999</v>
+      </c>
+      <c r="V51">
+        <v>19.693000000000001</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-36.905999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>36.674999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52">
+        <v>46.514000000000003</v>
+      </c>
+      <c r="D52">
+        <v>446.04700000000003</v>
+      </c>
+      <c r="E52">
+        <v>432.01100000000002</v>
+      </c>
+      <c r="F52">
+        <v>268.14299999999997</v>
+      </c>
+      <c r="G52">
+        <v>923.35799999999995</v>
+      </c>
+      <c r="H52">
+        <v>1613.787</v>
+      </c>
+      <c r="I52">
+        <v>204.33</v>
+      </c>
+      <c r="J52">
+        <v>151.47499999999999</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1014.84</v>
+      </c>
+      <c r="O52">
+        <v>1285.0930000000001</v>
+      </c>
+      <c r="P52">
+        <v>212.72499999999999</v>
+      </c>
+      <c r="Q52">
+        <v>64.3</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>5744</v>
+      </c>
+      <c r="T52">
+        <v>328.69400000000002</v>
+      </c>
+      <c r="U52">
+        <v>333.363</v>
+      </c>
+      <c r="V52">
+        <v>120.623</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-44.177999999999997</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>46.514000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53">
+        <v>38.194000000000003</v>
+      </c>
+      <c r="D53">
+        <v>410.70499999999998</v>
+      </c>
+      <c r="E53">
+        <v>392.17399999999998</v>
+      </c>
+      <c r="F53">
+        <v>248.97</v>
+      </c>
+      <c r="G53">
+        <v>935.15499999999997</v>
+      </c>
+      <c r="H53">
+        <v>1628.3979999999999</v>
+      </c>
+      <c r="I53">
+        <v>224.821</v>
+      </c>
+      <c r="J53">
+        <v>147.291</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1043.9929999999999</v>
+      </c>
+      <c r="O53">
+        <v>1306.7629999999999</v>
+      </c>
+      <c r="P53">
+        <v>212.291</v>
+      </c>
+      <c r="Q53">
+        <v>41.158000000000001</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>5891</v>
+      </c>
+      <c r="T53">
+        <v>321.63499999999999</v>
+      </c>
+      <c r="U53">
+        <v>374.52100000000002</v>
+      </c>
+      <c r="V53">
+        <v>101.753</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-56.768999999999998</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>38.194000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54">
+        <v>61.417999999999999</v>
+      </c>
+      <c r="D54">
+        <v>520.70699999999999</v>
+      </c>
+      <c r="E54">
+        <v>490.923</v>
+      </c>
+      <c r="F54">
+        <v>310.59899999999999</v>
+      </c>
+      <c r="G54">
+        <v>1084.8820000000001</v>
+      </c>
+      <c r="H54">
+        <v>1783.5820000000001</v>
+      </c>
+      <c r="I54">
+        <v>17.670999999999999</v>
+      </c>
+      <c r="J54">
+        <v>142.755</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1159.923</v>
+      </c>
+      <c r="O54">
+        <v>1422.2660000000001</v>
+      </c>
+      <c r="P54">
+        <v>211.505</v>
+      </c>
+      <c r="Q54">
+        <v>49.469000000000001</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>5997</v>
+      </c>
+      <c r="T54">
+        <v>361.31599999999997</v>
+      </c>
+      <c r="U54">
+        <v>423.99</v>
+      </c>
+      <c r="V54">
+        <v>73.584999999999994</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-16.001999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>61.417999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55">
+        <v>37.735999999999997</v>
+      </c>
+      <c r="D55">
+        <v>446.702</v>
+      </c>
+      <c r="E55">
+        <v>496.99700000000001</v>
+      </c>
+      <c r="F55">
+        <v>275.88099999999997</v>
+      </c>
+      <c r="G55">
+        <v>945.66800000000001</v>
+      </c>
+      <c r="H55">
+        <v>1757.713</v>
+      </c>
+      <c r="I55">
+        <v>211.56100000000001</v>
+      </c>
+      <c r="J55">
+        <v>138.22</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-1.875</v>
+      </c>
+      <c r="N55">
+        <v>1266.6210000000001</v>
+      </c>
+      <c r="O55">
+        <v>1520.99</v>
+      </c>
+      <c r="P55">
+        <v>360.72</v>
+      </c>
+      <c r="Q55">
+        <v>-140.70599999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>6136</v>
+      </c>
+      <c r="T55">
+        <v>236.72300000000001</v>
+      </c>
+      <c r="U55">
+        <v>283.28399999999999</v>
+      </c>
+      <c r="V55">
+        <v>16.47</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-32.276000000000003</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>37.735999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56">
+        <v>53.04</v>
+      </c>
+      <c r="D56">
+        <v>519.82000000000005</v>
+      </c>
+      <c r="E56">
+        <v>493.21600000000001</v>
+      </c>
+      <c r="F56">
+        <v>316.642</v>
+      </c>
+      <c r="G56">
+        <v>971.76900000000001</v>
+      </c>
+      <c r="H56">
+        <v>1796.808</v>
+      </c>
+      <c r="I56">
+        <v>251.41499999999999</v>
+      </c>
+      <c r="J56">
+        <v>133.62</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1345.548</v>
+      </c>
+      <c r="O56">
+        <v>1599.299</v>
+      </c>
+      <c r="P56">
+        <v>379.87</v>
+      </c>
+      <c r="Q56">
+        <v>34.640999999999998</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>6377</v>
+      </c>
+      <c r="T56">
+        <v>197.50899999999999</v>
+      </c>
+      <c r="U56">
+        <v>317.92500000000001</v>
+      </c>
+      <c r="V56">
+        <v>136.28800000000001</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-85.832999999999998</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>53.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57">
+        <v>33.845999999999997</v>
+      </c>
+      <c r="D57">
+        <v>470.94</v>
+      </c>
+      <c r="E57">
+        <v>449.923</v>
+      </c>
+      <c r="F57">
+        <v>282.88099999999997</v>
+      </c>
+      <c r="G57">
+        <v>959.23400000000004</v>
+      </c>
+      <c r="H57">
+        <v>1768.953</v>
+      </c>
+      <c r="I57">
+        <v>266.52600000000001</v>
+      </c>
+      <c r="J57">
+        <v>128.839</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1358.8720000000001</v>
+      </c>
+      <c r="O57">
+        <v>1616.43</v>
+      </c>
+      <c r="P57">
+        <v>373.839</v>
+      </c>
+      <c r="Q57">
+        <v>23.295000000000002</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>6590</v>
+      </c>
+      <c r="T57">
+        <v>152.523</v>
+      </c>
+      <c r="U57">
+        <v>341.22</v>
+      </c>
+      <c r="V57">
+        <v>122.851</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-78.376999999999995</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>33.845999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58">
+        <v>59.143999999999998</v>
+      </c>
+      <c r="D58">
+        <v>583.97900000000004</v>
+      </c>
+      <c r="E58">
+        <v>552.10699999999997</v>
+      </c>
+      <c r="F58">
+        <v>348.10399999999998</v>
+      </c>
+      <c r="G58">
+        <v>1096.6579999999999</v>
+      </c>
+      <c r="H58">
+        <v>1904.3510000000001</v>
+      </c>
+      <c r="I58">
+        <v>16.802</v>
+      </c>
+      <c r="J58">
+        <v>387.9</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1215.2180000000001</v>
+      </c>
+      <c r="O58">
+        <v>1743.18</v>
+      </c>
+      <c r="P58">
+        <v>407.9</v>
+      </c>
+      <c r="Q58">
+        <v>24.082000000000001</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>6758</v>
+      </c>
+      <c r="T58">
+        <v>161.17099999999999</v>
+      </c>
+      <c r="U58">
+        <v>365.30200000000002</v>
+      </c>
+      <c r="V58">
+        <v>71.17</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-12.183999999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>59.143999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59">
+        <v>28.350999999999999</v>
+      </c>
+      <c r="D59">
+        <v>471.18599999999998</v>
+      </c>
+      <c r="E59">
+        <v>526.38400000000001</v>
+      </c>
+      <c r="F59">
+        <v>293.42399999999998</v>
+      </c>
+      <c r="G59">
+        <v>1000.648</v>
+      </c>
+      <c r="H59">
+        <v>1789.37</v>
+      </c>
+      <c r="I59">
+        <v>240.268</v>
+      </c>
+      <c r="J59">
+        <v>384.74</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-5</v>
+      </c>
+      <c r="N59">
+        <v>1420.731</v>
+      </c>
+      <c r="O59">
+        <v>1928.883</v>
+      </c>
+      <c r="P59">
+        <v>669.74</v>
+      </c>
+      <c r="Q59">
+        <v>-83.649000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>7060</v>
+      </c>
+      <c r="T59">
+        <v>-139.51300000000001</v>
+      </c>
+      <c r="U59">
+        <v>281.65300000000002</v>
+      </c>
+      <c r="V59">
+        <v>5.6630000000000003</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-54.41</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>28.350999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60">
+        <v>51.155000000000001</v>
+      </c>
+      <c r="D60">
+        <v>547.93600000000004</v>
+      </c>
+      <c r="E60">
+        <v>527.61500000000001</v>
+      </c>
+      <c r="F60">
+        <v>337.44099999999997</v>
+      </c>
+      <c r="G60">
+        <v>1066.068</v>
+      </c>
+      <c r="H60">
+        <v>1861.039</v>
+      </c>
+      <c r="I60">
+        <v>262.28399999999999</v>
+      </c>
+      <c r="J60">
+        <v>699.01800000000003</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1204.52</v>
+      </c>
+      <c r="O60">
+        <v>2031.194</v>
+      </c>
+      <c r="P60">
+        <v>719.01800000000003</v>
+      </c>
+      <c r="Q60">
+        <v>75.927999999999997</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>7385</v>
+      </c>
+      <c r="T60">
+        <v>-170.155</v>
+      </c>
+      <c r="U60">
+        <v>357.58100000000002</v>
+      </c>
+      <c r="V60">
+        <v>143.74</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-62.091000000000001</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>51.155000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61">
+        <v>30.366</v>
+      </c>
+      <c r="D61">
+        <v>500.166</v>
+      </c>
+      <c r="E61">
+        <v>482.30200000000002</v>
+      </c>
+      <c r="F61">
+        <v>306.56400000000002</v>
+      </c>
+      <c r="G61">
+        <v>1061.3989999999999</v>
+      </c>
+      <c r="H61">
+        <v>2091.5419999999999</v>
+      </c>
+      <c r="I61">
+        <v>289.97699999999998</v>
+      </c>
+      <c r="J61">
+        <v>820</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1235.0999999999999</v>
+      </c>
+      <c r="O61">
+        <v>2251.1309999999999</v>
+      </c>
+      <c r="P61">
+        <v>840</v>
+      </c>
+      <c r="Q61">
+        <v>13.663</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>7596</v>
+      </c>
+      <c r="T61">
+        <v>-159.589</v>
+      </c>
+      <c r="U61">
+        <v>371.24400000000003</v>
+      </c>
+      <c r="V61">
+        <v>116.904</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>115.306</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>30.366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62">
+        <v>65.763000000000005</v>
+      </c>
+      <c r="D62">
+        <v>643.76800000000003</v>
+      </c>
+      <c r="E62">
+        <v>580.76300000000003</v>
+      </c>
+      <c r="F62">
+        <v>386.55099999999999</v>
+      </c>
+      <c r="G62">
+        <v>1140.9970000000001</v>
+      </c>
+      <c r="H62">
+        <v>2168.5169999999998</v>
+      </c>
+      <c r="I62">
+        <v>31.57</v>
+      </c>
+      <c r="J62">
+        <v>788.96299999999997</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1323.492</v>
+      </c>
+      <c r="O62">
+        <v>2300.9169999999999</v>
+      </c>
+      <c r="P62">
+        <v>823.96299999999997</v>
+      </c>
+      <c r="Q62">
+        <v>1.732</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>7834</v>
+      </c>
+      <c r="T62">
+        <v>-132.4</v>
+      </c>
+      <c r="U62">
+        <v>372.976</v>
+      </c>
+      <c r="V62">
+        <v>79.254000000000005</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-66.495000000000005</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>65.763000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63">
+        <v>44.987000000000002</v>
+      </c>
+      <c r="D63">
+        <v>557.26599999999996</v>
+      </c>
+      <c r="E63">
+        <v>602.87699999999995</v>
+      </c>
+      <c r="F63">
+        <v>345.22500000000002</v>
+      </c>
+      <c r="G63">
+        <v>1179.277</v>
+      </c>
+      <c r="H63">
+        <v>2211.509</v>
+      </c>
+      <c r="I63">
+        <v>247.297</v>
+      </c>
+      <c r="J63">
+        <v>849.52099999999996</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-5</v>
+      </c>
+      <c r="N63">
+        <v>1291.2239999999999</v>
+      </c>
+      <c r="O63">
+        <v>2324.1790000000001</v>
+      </c>
+      <c r="P63">
+        <v>907.02099999999996</v>
+      </c>
+      <c r="Q63">
+        <v>30.966999999999999</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>8019</v>
+      </c>
+      <c r="T63">
+        <v>-112.67</v>
+      </c>
+      <c r="U63">
+        <v>403.94299999999998</v>
+      </c>
+      <c r="V63">
+        <v>13.331</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>22.093</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>44.987000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64">
+        <v>51.627000000000002</v>
+      </c>
+      <c r="D64">
+        <v>609.99800000000005</v>
+      </c>
+      <c r="E64">
+        <v>613.79499999999996</v>
+      </c>
+      <c r="F64">
+        <v>378.57600000000002</v>
+      </c>
+      <c r="G64">
+        <v>1233.6559999999999</v>
+      </c>
+      <c r="H64">
+        <v>2304.5210000000002</v>
+      </c>
+      <c r="I64">
+        <v>287.38299999999998</v>
+      </c>
+      <c r="J64">
+        <v>776.27800000000002</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1387.241</v>
+      </c>
+      <c r="O64">
+        <v>2357.3490000000002</v>
+      </c>
+      <c r="P64">
+        <v>846.27800000000002</v>
+      </c>
+      <c r="Q64">
+        <v>41.11</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>8338</v>
+      </c>
+      <c r="T64">
+        <v>-52.828000000000003</v>
+      </c>
+      <c r="U64">
+        <v>445.053</v>
+      </c>
+      <c r="V64">
+        <v>148.452</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-64.332999999999998</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>51.625999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65">
+        <v>30.483000000000001</v>
+      </c>
+      <c r="D65">
+        <v>574.05899999999997</v>
+      </c>
+      <c r="E65">
+        <v>560.202</v>
+      </c>
+      <c r="F65">
+        <v>350.93700000000001</v>
+      </c>
+      <c r="G65">
+        <v>1245.9490000000001</v>
+      </c>
+      <c r="H65">
+        <v>2277.7399999999998</v>
+      </c>
+      <c r="I65">
+        <v>348.36200000000002</v>
+      </c>
+      <c r="J65">
+        <v>711.31200000000001</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1417.424</v>
+      </c>
+      <c r="O65">
+        <v>2288.2379999999998</v>
+      </c>
+      <c r="P65">
+        <v>751.31200000000001</v>
+      </c>
+      <c r="Q65">
+        <v>20.681000000000001</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>8584</v>
+      </c>
+      <c r="T65">
+        <v>-10.497999999999999</v>
+      </c>
+      <c r="U65">
+        <v>465.73399999999998</v>
+      </c>
+      <c r="V65">
+        <v>120.48</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-88.692999999999998</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>30.484000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66">
+        <v>66.484999999999999</v>
+      </c>
+      <c r="D66">
+        <v>703.21699999999998</v>
+      </c>
+      <c r="E66">
+        <v>643.01300000000003</v>
+      </c>
+      <c r="F66">
+        <v>424.154</v>
+      </c>
+      <c r="G66">
+        <v>1343.1959999999999</v>
+      </c>
+      <c r="H66">
+        <v>2367.335</v>
+      </c>
+      <c r="I66">
+        <v>41.009</v>
+      </c>
+      <c r="J66">
+        <v>664.39099999999996</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1460.249</v>
+      </c>
+      <c r="O66">
+        <v>2306.4569999999999</v>
+      </c>
+      <c r="P66">
+        <v>694.39099999999996</v>
+      </c>
+      <c r="Q66">
+        <v>8.4990000000000006</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>8813</v>
+      </c>
+      <c r="T66">
+        <v>60.878</v>
+      </c>
+      <c r="U66">
+        <v>474.233</v>
+      </c>
+      <c r="V66">
+        <v>83.369</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-43.753</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>66.484999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67">
+        <v>36.433</v>
+      </c>
+      <c r="D67">
+        <v>625.16899999999998</v>
+      </c>
+      <c r="E67">
+        <v>716.48699999999997</v>
+      </c>
+      <c r="F67">
+        <v>387.56</v>
+      </c>
+      <c r="G67">
+        <v>2175.6950000000002</v>
+      </c>
+      <c r="H67">
+        <v>3365.3</v>
+      </c>
+      <c r="I67">
+        <v>331.66899999999998</v>
+      </c>
+      <c r="J67">
+        <v>1605.961</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1470.356</v>
+      </c>
+      <c r="O67">
+        <v>3262.4830000000002</v>
+      </c>
+      <c r="P67">
+        <v>1635.327</v>
+      </c>
+      <c r="Q67">
+        <v>771.80799999999999</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>13000</v>
+      </c>
+      <c r="T67">
+        <v>102.81699999999999</v>
+      </c>
+      <c r="U67">
+        <v>1227.8910000000001</v>
+      </c>
+      <c r="V67">
+        <v>-29.605</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>917.27099999999996</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>36.433</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68">
+        <v>-92.281000000000006</v>
+      </c>
+      <c r="D68">
+        <v>843.73099999999999</v>
+      </c>
+      <c r="E68">
+        <v>886.39300000000003</v>
+      </c>
+      <c r="F68">
+        <v>491.72699999999998</v>
+      </c>
+      <c r="G68">
+        <v>1759.9739999999999</v>
+      </c>
+      <c r="H68">
+        <v>6994.8869999999997</v>
+      </c>
+      <c r="I68">
+        <v>517.01700000000005</v>
+      </c>
+      <c r="J68">
+        <v>3150.4859999999999</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2243.9070000000002</v>
+      </c>
+      <c r="O68">
+        <v>6141.2120000000004</v>
+      </c>
+      <c r="P68">
+        <v>3428.0639999999999</v>
+      </c>
+      <c r="Q68">
+        <v>-638.59500000000003</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>13000</v>
+      </c>
+      <c r="T68">
+        <v>853.67499999999995</v>
+      </c>
+      <c r="U68">
+        <v>589.28200000000004</v>
+      </c>
+      <c r="V68">
+        <v>112.32299999999999</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>1768.623</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>-92.281000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69">
+        <v>-48.18</v>
+      </c>
+      <c r="D69">
+        <v>828.08500000000004</v>
+      </c>
+      <c r="E69">
+        <v>874.28300000000002</v>
+      </c>
+      <c r="F69">
+        <v>495.87799999999999</v>
+      </c>
+      <c r="G69">
+        <v>1812.2829999999999</v>
+      </c>
+      <c r="H69">
+        <v>7011.4920000000002</v>
+      </c>
+      <c r="I69">
+        <v>550.11900000000003</v>
+      </c>
+      <c r="J69">
+        <v>2930.2379999999998</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2482.0349999999999</v>
+      </c>
+      <c r="O69">
+        <v>6148.0820000000003</v>
+      </c>
+      <c r="P69">
+        <v>3349.8389999999999</v>
+      </c>
+      <c r="Q69">
+        <v>15.609</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>14000</v>
+      </c>
+      <c r="T69">
+        <v>863.41</v>
+      </c>
+      <c r="U69">
+        <v>630.01599999999996</v>
+      </c>
+      <c r="V69">
+        <v>149.54900000000001</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-80.326999999999998</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>-48.18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70">
+        <v>107.307</v>
+      </c>
+      <c r="D70">
+        <v>1014.509</v>
+      </c>
+      <c r="E70">
+        <v>1203.5150000000001</v>
+      </c>
+      <c r="F70">
+        <v>616.13099999999997</v>
+      </c>
+      <c r="G70">
+        <v>2588.6080000000002</v>
+      </c>
+      <c r="H70">
+        <v>7283.1729999999998</v>
+      </c>
+      <c r="I70">
+        <v>49</v>
+      </c>
+      <c r="J70">
+        <v>2899.1239999999998</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2822.585</v>
+      </c>
+      <c r="O70">
+        <v>6299.7079999999996</v>
+      </c>
+      <c r="P70">
+        <v>3278.8449999999998</v>
+      </c>
+      <c r="Q70">
+        <v>-81.117999999999995</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>15131</v>
+      </c>
+      <c r="T70">
+        <v>983.46500000000003</v>
+      </c>
+      <c r="U70">
+        <v>538.90800000000002</v>
+      </c>
+      <c r="V70">
+        <v>22.25</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-65.736999999999995</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>107.307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71">
+        <v>-19.587</v>
+      </c>
+      <c r="D71">
+        <v>963.56500000000005</v>
+      </c>
+      <c r="E71">
+        <v>1162.557</v>
+      </c>
+      <c r="F71">
+        <v>606.35599999999999</v>
+      </c>
+      <c r="G71">
+        <v>2310.6619999999998</v>
+      </c>
+      <c r="H71">
+        <v>6915.0280000000002</v>
+      </c>
+      <c r="I71">
+        <v>532.04300000000001</v>
+      </c>
+      <c r="J71">
+        <v>2186.0610000000001</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-304.81299999999999</v>
+      </c>
+      <c r="N71">
+        <v>3185.8560000000002</v>
+      </c>
+      <c r="O71">
+        <v>5927.4570000000003</v>
+      </c>
+      <c r="P71">
+        <v>2975.7849999999999</v>
+      </c>
+      <c r="Q71">
+        <v>-339.428</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>14000</v>
+      </c>
+      <c r="T71">
+        <v>987.57100000000003</v>
+      </c>
+      <c r="U71">
+        <v>189.97900000000001</v>
+      </c>
+      <c r="V71">
+        <v>2.7240000000000002</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-329.08300000000003</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>-19.587</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72">
+        <v>46.27</v>
+      </c>
+      <c r="D72">
+        <v>1001.336</v>
+      </c>
+      <c r="E72">
+        <v>1115.9010000000001</v>
+      </c>
+      <c r="F72">
+        <v>633.69899999999996</v>
+      </c>
+      <c r="G72">
+        <v>1608.4839999999999</v>
+      </c>
+      <c r="H72">
+        <v>6152.9369999999999</v>
+      </c>
+      <c r="I72">
+        <v>541.66999999999996</v>
+      </c>
+      <c r="J72">
+        <v>2146.8290000000002</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2513.8040000000001</v>
+      </c>
+      <c r="O72">
+        <v>5231.5050000000001</v>
+      </c>
+      <c r="P72">
+        <v>2430.8380000000002</v>
+      </c>
+      <c r="Q72">
+        <v>-67.674000000000007</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>14000</v>
+      </c>
+      <c r="T72">
+        <v>921.43200000000002</v>
+      </c>
+      <c r="U72">
+        <v>141.80500000000001</v>
+      </c>
+      <c r="V72">
+        <v>174.023</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-618.16999999999996</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>46.27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73">
+        <v>11.753</v>
+      </c>
+      <c r="D73">
+        <v>921.67399999999998</v>
+      </c>
+      <c r="E73">
+        <v>1011.741</v>
+      </c>
+      <c r="F73">
+        <v>585.56200000000001</v>
+      </c>
+      <c r="G73">
+        <v>1535.34</v>
+      </c>
+      <c r="H73">
+        <v>5944.817</v>
+      </c>
+      <c r="I73">
+        <v>599.221</v>
+      </c>
+      <c r="J73">
+        <v>2077.4659999999999</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2343.596</v>
+      </c>
+      <c r="O73">
+        <v>5003.2690000000002</v>
+      </c>
+      <c r="P73">
+        <v>2170.7600000000002</v>
+      </c>
+      <c r="Q73">
+        <v>53.335999999999999</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>14700</v>
+      </c>
+      <c r="T73">
+        <v>941.548</v>
+      </c>
+      <c r="U73">
+        <v>210.99700000000001</v>
+      </c>
+      <c r="V73">
+        <v>249.26400000000001</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-266.303</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>11.753</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74">
+        <v>84.02</v>
+      </c>
+      <c r="D74">
+        <v>1088.8789999999999</v>
+      </c>
+      <c r="E74">
+        <v>1281.2370000000001</v>
+      </c>
+      <c r="F74">
+        <v>681.03700000000003</v>
+      </c>
+      <c r="G74">
+        <v>1811.739</v>
+      </c>
+      <c r="H74">
+        <v>6201.4740000000002</v>
+      </c>
+      <c r="I74">
+        <v>37.508000000000003</v>
+      </c>
+      <c r="J74">
+        <v>2126.79</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2620.9349999999999</v>
+      </c>
+      <c r="O74">
+        <v>5350.7169999999996</v>
+      </c>
+      <c r="P74">
+        <v>2292.3679999999999</v>
+      </c>
+      <c r="Q74">
+        <v>-54.628999999999998</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>15173</v>
+      </c>
+      <c r="T74">
+        <v>850.75699999999995</v>
+      </c>
+      <c r="U74">
+        <v>156.36799999999999</v>
+      </c>
+      <c r="V74">
+        <v>45.146999999999998</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-43.558999999999997</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>84.02</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75">
+        <v>20.795000000000002</v>
+      </c>
+      <c r="D75">
+        <v>970.44399999999996</v>
+      </c>
+      <c r="E75">
+        <v>1208.711</v>
+      </c>
+      <c r="F75">
+        <v>623.79899999999998</v>
+      </c>
+      <c r="G75">
+        <v>1716.0129999999999</v>
+      </c>
+      <c r="H75">
+        <v>6714.6750000000002</v>
+      </c>
+      <c r="I75">
+        <v>458.90100000000001</v>
+      </c>
+      <c r="J75">
+        <v>2125.3760000000002</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-18.681999999999999</v>
+      </c>
+      <c r="N75">
+        <v>2568.9180000000001</v>
+      </c>
+      <c r="O75">
+        <v>5857.7780000000002</v>
+      </c>
+      <c r="P75">
+        <v>3166.69</v>
+      </c>
+      <c r="Q75">
+        <v>-9.3930000000000007</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>856.89700000000005</v>
+      </c>
+      <c r="U75">
+        <v>149.27000000000001</v>
+      </c>
+      <c r="V75">
+        <v>35.595999999999997</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-23.437999999999999</v>
+      </c>
+      <c r="Y75">
+        <v>769.15499999999997</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>20.795000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76">
+        <v>103.40600000000001</v>
+      </c>
+      <c r="D76">
+        <v>1070.8820000000001</v>
+      </c>
+      <c r="E76">
+        <v>1140.3109999999999</v>
+      </c>
+      <c r="F76">
+        <v>682.88300000000004</v>
+      </c>
+      <c r="G76">
+        <v>1691.104</v>
+      </c>
+      <c r="H76">
+        <v>6729.6409999999996</v>
+      </c>
+      <c r="I76">
+        <v>490.96199999999999</v>
+      </c>
+      <c r="J76">
+        <v>2123.7220000000002</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2482.1509999999998</v>
+      </c>
+      <c r="O76">
+        <v>5765.8389999999999</v>
+      </c>
+      <c r="P76">
+        <v>3086.3719999999998</v>
+      </c>
+      <c r="Q76">
+        <v>69.183000000000007</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>963.80200000000002</v>
+      </c>
+      <c r="U76">
+        <v>218.453</v>
+      </c>
+      <c r="V76">
+        <v>227.482</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-118.69</v>
+      </c>
+      <c r="Y76">
+        <v>768.24300000000005</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>103.40600000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77">
+        <v>41.387999999999998</v>
+      </c>
+      <c r="D77">
+        <v>1000.502</v>
+      </c>
+      <c r="E77">
+        <v>1053.2249999999999</v>
+      </c>
+      <c r="F77">
+        <v>635.44600000000003</v>
+      </c>
+      <c r="G77">
+        <v>1706.5050000000001</v>
+      </c>
+      <c r="H77">
+        <v>6737.3440000000001</v>
+      </c>
+      <c r="I77">
+        <v>513.30499999999995</v>
+      </c>
+      <c r="J77">
+        <v>2131.7399999999998</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2527.2629999999999</v>
+      </c>
+      <c r="O77">
+        <v>5817.6869999999999</v>
+      </c>
+      <c r="P77">
+        <v>3118.9050000000002</v>
+      </c>
+      <c r="Q77">
+        <v>88.274000000000001</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>919.65700000000004</v>
+      </c>
+      <c r="U77">
+        <v>306.72699999999998</v>
+      </c>
+      <c r="V77">
+        <v>219.523</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-90.685000000000002</v>
+      </c>
+      <c r="Y77">
+        <v>776.56200000000001</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>41.387999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78">
+        <v>67.700999999999993</v>
+      </c>
+      <c r="D78">
+        <v>1203.4929999999999</v>
+      </c>
+      <c r="E78">
+        <v>1347.3620000000001</v>
+      </c>
+      <c r="F78">
+        <v>752.625</v>
+      </c>
+      <c r="G78">
+        <v>2018.741</v>
+      </c>
+      <c r="H78">
+        <v>7151.2939999999999</v>
+      </c>
+      <c r="I78">
+        <v>32.994999999999997</v>
+      </c>
+      <c r="J78">
+        <v>2108.7190000000001</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2856.5340000000001</v>
+      </c>
+      <c r="O78">
+        <v>6212.701</v>
+      </c>
+      <c r="P78">
+        <v>3157.4859999999999</v>
+      </c>
+      <c r="Q78">
+        <v>-25.890999999999998</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>16724</v>
+      </c>
+      <c r="T78">
+        <v>938.59299999999996</v>
+      </c>
+      <c r="U78">
+        <v>280.83600000000001</v>
+      </c>
+      <c r="V78">
+        <v>82.834999999999994</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-53.179000000000002</v>
+      </c>
+      <c r="Y78">
+        <v>832.53300000000002</v>
+      </c>
+      <c r="Z78">
+        <v>14.12</v>
+      </c>
+      <c r="AA78">
+        <v>67.700999999999993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79">
+        <v>75.096999999999994</v>
+      </c>
+      <c r="D79">
+        <v>1018.891</v>
+      </c>
+      <c r="E79">
+        <v>1168.123</v>
+      </c>
+      <c r="F79">
+        <v>677.61300000000006</v>
+      </c>
+      <c r="G79">
+        <v>1772.6179999999999</v>
+      </c>
+      <c r="H79">
+        <v>6800.3459999999995</v>
+      </c>
+      <c r="I79">
+        <v>456.66800000000001</v>
+      </c>
+      <c r="J79">
+        <v>2161.59</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-0.96699999999999997</v>
+      </c>
+      <c r="N79">
+        <v>2530.3380000000002</v>
+      </c>
+      <c r="O79">
+        <v>5910.0709999999999</v>
+      </c>
+      <c r="P79">
+        <v>3201.2</v>
+      </c>
+      <c r="Q79">
+        <v>-52.985999999999997</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>890.27499999999998</v>
+      </c>
+      <c r="U79">
+        <v>227.85</v>
+      </c>
+      <c r="V79">
+        <v>55.749000000000002</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-68.489999999999995</v>
+      </c>
+      <c r="Y79">
+        <v>813.88300000000004</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>75.096999999999994</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80">
+        <v>55.076999999999998</v>
+      </c>
+      <c r="D80">
+        <v>973.13499999999999</v>
+      </c>
+      <c r="E80">
+        <v>1071.2149999999999</v>
+      </c>
+      <c r="F80">
+        <v>650.58399999999995</v>
+      </c>
+      <c r="G80">
+        <v>1767.1849999999999</v>
+      </c>
+      <c r="H80">
+        <v>6810.2939999999999</v>
+      </c>
+      <c r="I80">
+        <v>621.27200000000005</v>
+      </c>
+      <c r="J80">
+        <v>2031.4069999999999</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2539.3220000000001</v>
+      </c>
+      <c r="O80">
+        <v>5819.0749999999998</v>
+      </c>
+      <c r="P80">
+        <v>2986.2510000000002</v>
+      </c>
+      <c r="Q80">
+        <v>128.78299999999999</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>991.21900000000005</v>
+      </c>
+      <c r="U80">
+        <v>356.63299999999998</v>
+      </c>
+      <c r="V80">
+        <v>343.16800000000001</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-207.26300000000001</v>
+      </c>
+      <c r="Y80">
+        <v>802.11900000000003</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>55.076999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81">
+        <v>16.963999999999999</v>
+      </c>
+      <c r="D81">
+        <v>994.61800000000005</v>
+      </c>
+      <c r="E81">
+        <v>972.85400000000004</v>
+      </c>
+      <c r="F81">
+        <v>664.851</v>
+      </c>
+      <c r="G81">
+        <v>1865.404</v>
+      </c>
+      <c r="H81">
+        <v>6840.6019999999999</v>
+      </c>
+      <c r="I81">
+        <v>673.05799999999999</v>
+      </c>
+      <c r="J81">
+        <v>2043.299</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2521.5619999999999</v>
+      </c>
+      <c r="O81">
+        <v>5803.0990000000002</v>
+      </c>
+      <c r="P81">
+        <v>2966.6120000000001</v>
+      </c>
+      <c r="Q81">
+        <v>197.08199999999999</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>1037.5029999999999</v>
+      </c>
+      <c r="U81">
+        <v>553.71500000000003</v>
+      </c>
+      <c r="V81">
+        <v>243.91300000000001</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-42.271999999999998</v>
+      </c>
+      <c r="Y81">
+        <v>785.70500000000004</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>16.963999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
         <v>44196</v>
       </c>
-      <c r="B42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42">
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82">
         <v>119.607</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1112.759</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1255.9480000000001</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>761.33100000000002</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2323.058</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>7315.9669999999996</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>38.588000000000001</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>2032.575</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2947.4940000000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>6225.5389999999998</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>2952.1370000000002</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>158.86799999999999</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>15600</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>1090.4280000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>712.58299999999997</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>260.44799999999998</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-98.198999999999998</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>780.16600000000005</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>119.607</v>
       </c>
     </row>
